--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_276.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_276.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32596-d78411-Reviews-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>127</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Extended-Stay-America-Orange-County-Lake-Forest.h79474.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_276.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_276.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="653">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1849 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r571774802-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>32596</t>
+  </si>
+  <si>
+    <t>78411</t>
+  </si>
+  <si>
+    <t>571774802</t>
+  </si>
+  <si>
+    <t>04/07/2018</t>
+  </si>
+  <si>
+    <t>Outstanding place to stay</t>
+  </si>
+  <si>
+    <t>This hotel is excellent. First it feels more like a studio apartment as opposed to a hotel room and they provide all linens, dishes, towels, appliances to make you feel at home. The staff, Bridget, Carla and manager Jay were all great providing top tier customer service while I was there as well. Lastly, the hotel is close to the 241 and 5 freeways so it makes getting places easy and convenient. Great job! Keep it up!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded April 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is excellent. First it feels more like a studio apartment as opposed to a hotel room and they provide all linens, dishes, towels, appliances to make you feel at home. The staff, Bridget, Carla and manager Jay were all great providing top tier customer service while I was there as well. Lastly, the hotel is close to the 241 and 5 freeways so it makes getting places easy and convenient. Great job! Keep it up!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r568204624-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>568204624</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>Beyond Horrible</t>
+  </si>
+  <si>
+    <t>Absolutely, an unmitigated nightmare. This is NOT a hotel for vacationers. It is literally, a welfare hotel for the homeless or post rehab or the 30 day voucher dependent population of Orange County. Nothing on the website or in the pictures online would even hint at this as a possibility.. To get the promised lower online  rate we had to pay our entire balance upfront. over 5k NZD for a 30 day stay..And once here, realising the condition... we were told no refund for early departure. No daily maid service only weekly and on the scheduled day, no one showed up (we were told they were short handed when we inquired and then rescheduled) missing  and water damaged ceiling tiles and filth were among the list of “ammenities” not listed on ESA’s website.. prior to booking. The lamp in our room had no lightbulb. The phone plate is literally ripped off the phone and the stove does not work!!!   We purchased our own linen for the bed and removed a tiny broken glass vial from between the bed and the nightstand. Orange County Social Services workers were in the hall this morning and Paramedics were in the lobby(?) last night.. The smell of weed coming from the non-smoking rooms is strong enough for a “contact high” in the hallway. And not surprisingly, the outside  key entry pad closest to our room was non-functioning.STAY AWAY from this chain of hotels!!! This...Absolutely, an unmitigated nightmare. This is NOT a hotel for vacationers. It is literally, a welfare hotel for the homeless or post rehab or the 30 day voucher dependent population of Orange County. Nothing on the website or in the pictures online would even hint at this as a possibility.. To get the promised lower online  rate we had to pay our entire balance upfront. over 5k NZD for a 30 day stay..And once here, realising the condition... we were told no refund for early departure. No daily maid service only weekly and on the scheduled day, no one showed up (we were told they were short handed when we inquired and then rescheduled) missing  and water damaged ceiling tiles and filth were among the list of “ammenities” not listed on ESA’s website.. prior to booking. The lamp in our room had no lightbulb. The phone plate is literally ripped off the phone and the stove does not work!!!   We purchased our own linen for the bed and removed a tiny broken glass vial from between the bed and the nightstand. Orange County Social Services workers were in the hall this morning and Paramedics were in the lobby(?) last night.. The smell of weed coming from the non-smoking rooms is strong enough for a “contact high” in the hallway. And not surprisingly, the outside  key entry pad closest to our room was non-functioning.STAY AWAY from this chain of hotels!!! This is deceptive advertising to the point of being considered theft. Truly, the worst hotel experience EVER and I’m including hostel stays in Europe in the 80’s in that assessment. The one and ONLY tiny bright spot is a genuinely, sweet front desk staff. Do not be fooled by the smiling thumbs up stock photos on their website! It’s a LIE!!!STAY AWAY as if this hotel were located in Chernobyl or North Korea...I’m NOT exaggerating..MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded May 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2018</t>
+  </si>
+  <si>
+    <t>Absolutely, an unmitigated nightmare. This is NOT a hotel for vacationers. It is literally, a welfare hotel for the homeless or post rehab or the 30 day voucher dependent population of Orange County. Nothing on the website or in the pictures online would even hint at this as a possibility.. To get the promised lower online  rate we had to pay our entire balance upfront. over 5k NZD for a 30 day stay..And once here, realising the condition... we were told no refund for early departure. No daily maid service only weekly and on the scheduled day, no one showed up (we were told they were short handed when we inquired and then rescheduled) missing  and water damaged ceiling tiles and filth were among the list of “ammenities” not listed on ESA’s website.. prior to booking. The lamp in our room had no lightbulb. The phone plate is literally ripped off the phone and the stove does not work!!!   We purchased our own linen for the bed and removed a tiny broken glass vial from between the bed and the nightstand. Orange County Social Services workers were in the hall this morning and Paramedics were in the lobby(?) last night.. The smell of weed coming from the non-smoking rooms is strong enough for a “contact high” in the hallway. And not surprisingly, the outside  key entry pad closest to our room was non-functioning.STAY AWAY from this chain of hotels!!! This...Absolutely, an unmitigated nightmare. This is NOT a hotel for vacationers. It is literally, a welfare hotel for the homeless or post rehab or the 30 day voucher dependent population of Orange County. Nothing on the website or in the pictures online would even hint at this as a possibility.. To get the promised lower online  rate we had to pay our entire balance upfront. over 5k NZD for a 30 day stay..And once here, realising the condition... we were told no refund for early departure. No daily maid service only weekly and on the scheduled day, no one showed up (we were told they were short handed when we inquired and then rescheduled) missing  and water damaged ceiling tiles and filth were among the list of “ammenities” not listed on ESA’s website.. prior to booking. The lamp in our room had no lightbulb. The phone plate is literally ripped off the phone and the stove does not work!!!   We purchased our own linen for the bed and removed a tiny broken glass vial from between the bed and the nightstand. Orange County Social Services workers were in the hall this morning and Paramedics were in the lobby(?) last night.. The smell of weed coming from the non-smoking rooms is strong enough for a “contact high” in the hallway. And not surprisingly, the outside  key entry pad closest to our room was non-functioning.STAY AWAY from this chain of hotels!!! This is deceptive advertising to the point of being considered theft. Truly, the worst hotel experience EVER and I’m including hostel stays in Europe in the 80’s in that assessment. The one and ONLY tiny bright spot is a genuinely, sweet front desk staff. Do not be fooled by the smiling thumbs up stock photos on their website! It’s a LIE!!!STAY AWAY as if this hotel were located in Chernobyl or North Korea...I’m NOT exaggerating..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r563470651-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>563470651</t>
+  </si>
+  <si>
+    <t>02/28/2018</t>
+  </si>
+  <si>
+    <t>02/25/2018</t>
+  </si>
+  <si>
+    <t>Perfect staff Initiative and friendly, they hotel is clean and very modern to long term living. Overall a good experience!! Highly recommended if your going to be staying anywhere for a extended period of time.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded March 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2018</t>
+  </si>
+  <si>
+    <t>Perfect staff Initiative and friendly, they hotel is clean and very modern to long term living. Overall a good experience!! Highly recommended if your going to be staying anywhere for a extended period of time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r553490558-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>553490558</t>
+  </si>
+  <si>
+    <t>01/12/2018</t>
+  </si>
+  <si>
+    <t>Good Place to Stay</t>
+  </si>
+  <si>
+    <t>I was moving across country and came to stay so that I could pack up my car and go. Perfect place to crash and my stuff was safe. The staff was extremely friendly and the grab and go breakfast was the perfect thing.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded January 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2018</t>
+  </si>
+  <si>
+    <t>I was moving across country and came to stay so that I could pack up my car and go. Perfect place to crash and my stuff was safe. The staff was extremely friendly and the grab and go breakfast was the perfect thing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r551916487-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>551916487</t>
+  </si>
+  <si>
+    <t>01/05/2018</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>Upon Check in we were greeted by the manager Jay who was friendly and prompt when we got in the room everything was clean and ready for our long stay.  Overall the area is nice and so is the staff we will definitely be staying here more often or anytime we go out of town.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded January 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2018</t>
+  </si>
+  <si>
+    <t>Upon Check in we were greeted by the manager Jay who was friendly and prompt when we got in the room everything was clean and ready for our long stay.  Overall the area is nice and so is the staff we will definitely be staying here more often or anytime we go out of town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r550112551-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>550112551</t>
+  </si>
+  <si>
+    <t>12/29/2017</t>
+  </si>
+  <si>
+    <t>EXCELLENT</t>
+  </si>
+  <si>
+    <t>i purpously went back in my emails to give aniother great review to this location as since then ive stayed at 2 other properties and it just reminded me at how amazing this crew is!! jay and his day time crew are the kind of above and beyond customer service that is so rare anymore,,their smiles are endless and their willingness to make your stay as close to perfect as possible is so evident as you see how hard working they are but never short on positivity! Anaheim hills location could learn a lot as I suudenly felt I was in a bad street movie and staff was going to beat me up!! all employees of this company should have to spend a day with jay and employees of lake forest, not a single employee should be left out as I had not a single bad experience with any of them,,you are amazing lake forest extended stayMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded December 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2017</t>
+  </si>
+  <si>
+    <t>i purpously went back in my emails to give aniother great review to this location as since then ive stayed at 2 other properties and it just reminded me at how amazing this crew is!! jay and his day time crew are the kind of above and beyond customer service that is so rare anymore,,their smiles are endless and their willingness to make your stay as close to perfect as possible is so evident as you see how hard working they are but never short on positivity! Anaheim hills location could learn a lot as I suudenly felt I was in a bad street movie and staff was going to beat me up!! all employees of this company should have to spend a day with jay and employees of lake forest, not a single employee should be left out as I had not a single bad experience with any of them,,you are amazing lake forest extended stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r547279871-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>547279871</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>Receptionists and housekeepers are friendly.</t>
+  </si>
+  <si>
+    <t>We went to this hotel with a couple of friends last month. The front desk receptionists were very nice and friendly. They went out of their way to accommodate our requests for additional towels and kitchen items. We booked a 2 full beds that they upgraded to 2 queen beds. Yay! They only give housekeeping every 7 days, which is fine with us. Just make sure that you let them know beforehand that you want your room cleaned. Terry cleaned our room, and she did an excellent job. The only bad thing I can say about the hotel is that the elevator is very creaky, in need of maintenance or replacement.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded December 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2017</t>
+  </si>
+  <si>
+    <t>We went to this hotel with a couple of friends last month. The front desk receptionists were very nice and friendly. They went out of their way to accommodate our requests for additional towels and kitchen items. We booked a 2 full beds that they upgraded to 2 queen beds. Yay! They only give housekeeping every 7 days, which is fine with us. Just make sure that you let them know beforehand that you want your room cleaned. Terry cleaned our room, and she did an excellent job. The only bad thing I can say about the hotel is that the elevator is very creaky, in need of maintenance or replacement.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r545786495-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>545786495</t>
+  </si>
+  <si>
+    <t>12/07/2017</t>
+  </si>
+  <si>
+    <t>Below average</t>
+  </si>
+  <si>
+    <t>The hotel is adequate but the ratings are too high.  The property is not well maintained and not clean.  The breakfast is instant oatmeal and dry granola bars.  On the positive side, the front desk staff is pleasant and helpful.  MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded December 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is adequate but the ratings are too high.  The property is not well maintained and not clean.  The breakfast is instant oatmeal and dry granola bars.  On the positive side, the front desk staff is pleasant and helpful.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r544898348-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>544898348</t>
+  </si>
+  <si>
+    <t>12/03/2017</t>
+  </si>
+  <si>
+    <t>The Staff make a nice experience</t>
+  </si>
+  <si>
+    <t>I have to say the place it's pretty quite and clean the receptionist Carla fix  a long day of work with a smile, I definitely will come back to this place again and of course I recommend this place if you like relaxing places MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded December 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2017</t>
+  </si>
+  <si>
+    <t>I have to say the place it's pretty quite and clean the receptionist Carla fix  a long day of work with a smile, I definitely will come back to this place again and of course I recommend this place if you like relaxing places More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r541396433-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>541396433</t>
+  </si>
+  <si>
+    <t>11/16/2017</t>
+  </si>
+  <si>
+    <t>Oldie but goodie</t>
+  </si>
+  <si>
+    <t>Although hotel is old, the guest services make up for it. Staff was nice and helpful. They are always cheerful and friendly.Elevator needs maintenance. It creaks whenever we rode on it. Room needs touch-up, but is kept clean. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded November 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2017</t>
+  </si>
+  <si>
+    <t>Although hotel is old, the guest services make up for it. Staff was nice and helpful. They are always cheerful and friendly.Elevator needs maintenance. It creaks whenever we rode on it. Room needs touch-up, but is kept clean. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r541191739-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>541191739</t>
+  </si>
+  <si>
+    <t>11/15/2017</t>
+  </si>
+  <si>
+    <t>Would recommend this hotel</t>
+  </si>
+  <si>
+    <t>Extremely courteous,friendly and helpful staff. Hotel was quiet and I stayed an extra week because I liked the hotel, its location and the service. Several guests extended their stay and in part this is because the hotel is welcoming, the bed was extremely comfortable and having a small kitchen cuts down on eating out and is convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded November 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2017</t>
+  </si>
+  <si>
+    <t>Extremely courteous,friendly and helpful staff. Hotel was quiet and I stayed an extra week because I liked the hotel, its location and the service. Several guests extended their stay and in part this is because the hotel is welcoming, the bed was extremely comfortable and having a small kitchen cuts down on eating out and is convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r537964521-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>537964521</t>
+  </si>
+  <si>
+    <t>11/02/2017</t>
+  </si>
+  <si>
+    <t>Poor experience</t>
+  </si>
+  <si>
+    <t>Visited this hotel 2 times first time round was brilliant we like it that much we booked again 2nd time round was terrible poor attitude of staff Car park was treated like a garage people fixing cars through the night and revving engines. We travel from England to see family so frequent lake forest every year Time to find somewhere else MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded November 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2017</t>
+  </si>
+  <si>
+    <t>Visited this hotel 2 times first time round was brilliant we like it that much we booked again 2nd time round was terrible poor attitude of staff Car park was treated like a garage people fixing cars through the night and revving engines. We travel from England to see family so frequent lake forest every year Time to find somewhere else More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r529291497-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>529291497</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Bates Motel</t>
+  </si>
+  <si>
+    <t>People and employees were very nice. This hotel is threadbare at best, the room may never have been thoroughly cleaned, ever.  There were no kitchen items, no coffee pot, the cabinets were actually sticky from never having been cleaned, maybe nicotine build up over decades before being made a non-smoking facility?  Hallways are dark and gloomy.  We checked out immediately after one night.  The windows on the ground floor room we had had to be locked with a special screw apparatus as the original window locks were broken.  I was directed to this hotel by my company's travel site as being acceptable and a cost saver.  My advice is to spend the extra money to have a clean, well-lighted place complete with breakfast and a few other amenities like a coffee pot in the room along with utensils, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2017</t>
+  </si>
+  <si>
+    <t>People and employees were very nice. This hotel is threadbare at best, the room may never have been thoroughly cleaned, ever.  There were no kitchen items, no coffee pot, the cabinets were actually sticky from never having been cleaned, maybe nicotine build up over decades before being made a non-smoking facility?  Hallways are dark and gloomy.  We checked out immediately after one night.  The windows on the ground floor room we had had to be locked with a special screw apparatus as the original window locks were broken.  I was directed to this hotel by my company's travel site as being acceptable and a cost saver.  My advice is to spend the extra money to have a clean, well-lighted place complete with breakfast and a few other amenities like a coffee pot in the room along with utensils, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r525615885-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>525615885</t>
+  </si>
+  <si>
+    <t>09/18/2017</t>
+  </si>
+  <si>
+    <t>Everything worked perfectly</t>
+  </si>
+  <si>
+    <t>When the kitchen light burned out it was replaced immediately.  Clean rooms, furnished kitchen supplies like plates, glasses, pots and pans.  I enjoyed my stay all three weeks.  We requested the 1st floor and we got it.  I don't like to wait for the elevator.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded September 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2017</t>
+  </si>
+  <si>
+    <t>When the kitchen light burned out it was replaced immediately.  Clean rooms, furnished kitchen supplies like plates, glasses, pots and pans.  I enjoyed my stay all three weeks.  We requested the 1st floor and we got it.  I don't like to wait for the elevator.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r525579543-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>525579543</t>
+  </si>
+  <si>
+    <t>Stay Out of Emergency Necessity</t>
+  </si>
+  <si>
+    <t>We only stayed here due to black mold and asbestos found under our kitchen floor.  General Manager, halfway through our stay, said we had to leave due to a church convention coming in for a couple of days - and my husband was out of town at this point - so stressful!!  Fortunately, the District Manager overrode this terrible decision, extending our stay for 20 more days, if needed! We were at this hotel for 2 weeks, and were most ready to leave once deemed safe to move home! MoreShow less</t>
+  </si>
+  <si>
+    <t>We only stayed here due to black mold and asbestos found under our kitchen floor.  General Manager, halfway through our stay, said we had to leave due to a church convention coming in for a couple of days - and my husband was out of town at this point - so stressful!!  Fortunately, the District Manager overrode this terrible decision, extending our stay for 20 more days, if needed! We were at this hotel for 2 weeks, and were most ready to leave once deemed safe to move home! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r513126250-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>513126250</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>Don't Stay Here!</t>
+  </si>
+  <si>
+    <t>The rooms look nothing like the website pictures!  The whole place has a musty, locker room smell.  Our bedspread had a huge cigarette burn!  No hairdryer in the room!  When we asked about a coffee pot, we were told we would have to wait until someone checked out to get one because they didn't have enough to go around!  We moved to a new hotel after 2 nights! Bad experience!  MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>The rooms look nothing like the website pictures!  The whole place has a musty, locker room smell.  Our bedspread had a huge cigarette burn!  No hairdryer in the room!  When we asked about a coffee pot, we were told we would have to wait until someone checked out to get one because they didn't have enough to go around!  We moved to a new hotel after 2 nights! Bad experience!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r507753874-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>507753874</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>Awful experience</t>
+  </si>
+  <si>
+    <t>We were there for a basketball tournament. Hotel was overbooked. One of our party's pre-paid rooms was sold. Took several hours until 2:00 am to get them a room. Between this hotel and Expedia it was an eye-opening experience. I will not be using either brand again. The room is dingy at best, beds and pillows not great. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>We were there for a basketball tournament. Hotel was overbooked. One of our party's pre-paid rooms was sold. Took several hours until 2:00 am to get them a room. Between this hotel and Expedia it was an eye-opening experience. I will not be using either brand again. The room is dingy at best, beds and pillows not great. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r505682989-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>505682989</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Perfect Couples Getaway</t>
+  </si>
+  <si>
+    <t>Room was spacious, nice decor &amp; the small kitchen was perfect!!! We traveled for sports but were able to getaway for 1 night of alone time. I cooked dinner &amp; we just relaxed, a great night after driving &amp; sports all day.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Room was spacious, nice decor &amp; the small kitchen was perfect!!! We traveled for sports but were able to getaway for 1 night of alone time. I cooked dinner &amp; we just relaxed, a great night after driving &amp; sports all day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r496986617-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>496986617</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>Best Location in Orange County</t>
+  </si>
+  <si>
+    <t>The staff here is very helpful and informative, always smiling and willing to help so you feel comfortable and happy.. love the staff here and the cleanliness of the rooms/ laundry facility, as well as the location !MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded June 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2017</t>
+  </si>
+  <si>
+    <t>The staff here is very helpful and informative, always smiling and willing to help so you feel comfortable and happy.. love the staff here and the cleanliness of the rooms/ laundry facility, as well as the location !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r494595494-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>494595494</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>NO attention to detail</t>
+  </si>
+  <si>
+    <t>Been about six months since I last stayed and gave it another chance.  Arrived at night, room had no hangers, or TV remote.  When I woke up in the morning I could see the floor had not been cleaned.  The front of the hotel is littered with cigarette butts and elevator has a strange smell similar to a locker room.  the staff however, most helpful and considerate.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded June 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2017</t>
+  </si>
+  <si>
+    <t>Been about six months since I last stayed and gave it another chance.  Arrived at night, room had no hangers, or TV remote.  When I woke up in the morning I could see the floor had not been cleaned.  The front of the hotel is littered with cigarette butts and elevator has a strange smell similar to a locker room.  the staff however, most helpful and considerate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r491421071-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>491421071</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>Unsafe room</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and helpfully, high marks. The elevator had a musty odor to it, like carpets that had been in standing water for a while. The room had a large stain on the carpet, two large cracks in the windows, and a plastic bag over the fire alarm.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded June 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2017</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and helpfully, high marks. The elevator had a musty odor to it, like carpets that had been in standing water for a while. The room had a large stain on the carpet, two large cracks in the windows, and a plastic bag over the fire alarm.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r459875296-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>459875296</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Very bad service and rude staff</t>
+  </si>
+  <si>
+    <t>They are not cleaning the room for 7 days! This is triblle!Even you have to go to reciption to change towel or get soap for your bath roomThe customer service is not important in this hotel at all and the staff talk you too rudlyI will never use this hotel ...</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r454301060-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>454301060</t>
+  </si>
+  <si>
+    <t>01/23/2017</t>
+  </si>
+  <si>
+    <t>Decent stay</t>
+  </si>
+  <si>
+    <t>it was close to my office hence stayed there for 2 weeks. staff were friendly, rooms were clean, price was reasonable. it felt like home after couple of days. Overall quite happy with my two weeks stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded January 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2017</t>
+  </si>
+  <si>
+    <t>it was close to my office hence stayed there for 2 weeks. staff were friendly, rooms were clean, price was reasonable. it felt like home after couple of days. Overall quite happy with my two weeks stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r451250147-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>451250147</t>
+  </si>
+  <si>
+    <t>01/11/2017</t>
+  </si>
+  <si>
+    <t>Dirty hotel do not stay!</t>
+  </si>
+  <si>
+    <t>Rooms were dirty and discusting.  Something had been thrown against and smeared on wall..looked like feces.  Dirty or no mattress covers. Guest agent was helpful and moved me twice.  He also was discusted.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r441138692-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>441138692</t>
+  </si>
+  <si>
+    <t>11/30/2016</t>
+  </si>
+  <si>
+    <t>A tad expensive, with few ammenities</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 days, as it was a pet friendly hotel. Was not very impressed with the services provided. Due to our short stay, housekeeping was NOT included(but can be had for an extra cost) and linens must be exchanged at the front desk. The 'continental breakfast' advertised, was in fact what they referred to as 'grab and go'-  made up of cheesy muffins, and snack bars and coffee. At over $110 a night for a 2 queen room, I would not consider this an 'economy' hotel.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r440500911-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>440500911</t>
+  </si>
+  <si>
+    <t>11/27/2016</t>
+  </si>
+  <si>
+    <t>Consistently great</t>
+  </si>
+  <si>
+    <t>We stayed here twice in November and like our other stays this year we were very happy.  The rooms were clean and we like having a kitchen. the dishes, pans, coffee cups, etc are available for the asking and it is nice to know they have been through the dishwasher, not just rinsed off and put in the cupboard. The king bed was very comfy. But we think the best thing about staying here is the staff. When we arrived to check in earlier in the month, a guest was having a health issue and Crystal (front desk) calmly, efficiently and compassionately took care of the guest.  Jay, the manager, has given us so much valuable information over the course of our stays. Justina and all the front desk staff make us feel welcome every time we come back. We appreciate having coffee available in the lobby too! MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here twice in November and like our other stays this year we were very happy.  The rooms were clean and we like having a kitchen. the dishes, pans, coffee cups, etc are available for the asking and it is nice to know they have been through the dishwasher, not just rinsed off and put in the cupboard. The king bed was very comfy. But we think the best thing about staying here is the staff. When we arrived to check in earlier in the month, a guest was having a health issue and Crystal (front desk) calmly, efficiently and compassionately took care of the guest.  Jay, the manager, has given us so much valuable information over the course of our stays. Justina and all the front desk staff make us feel welcome every time we come back. We appreciate having coffee available in the lobby too! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r431544157-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>431544157</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs some cleaning, but otherwise not terrible. </t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for 5 days with my son and husband... it was okay value for money.... however, one thing that wasn't advertised on Hotels.com where I booked it, is that it isn't a full service hotel. That means you don't have any housekeeping while you're there; if you want new towels, you can bring the used ones to the desk and they'll exchange them but otherwise nothing unless you stay over a week. Our room also had a kitchenette but didn't come stocked unless you requested the things you wanted. 
+Our room definitely was dated and not the cleanest. On one bed, the sheets were stained. In the bathroom, some sort of dried ?soap, ?cleaner was left on the shelf, and there was hair by the kitchen sink. The towels were clean though. 
+The location was a bit far for things like Disneyland, but we rented a car and therefore this was not an issue. 
+The staff were super lovely and we had no issues... payment went through and they didn't have hidden fees for anything, which was nice. I travel a lot and find this happens quite a bit. 
+The breakfast is a grab-and-go style... meaning muffins, packaged oatmeal and granola bars... it was handy one morning but otherwise we skipped it. 
+Wouldn't necessarily stay again- cleanliness is a BIG thing for me.... that being said, I travel with a sleeping bag liner so I don't have...Stayed at this hotel for 5 days with my son and husband... it was okay value for money.... however, one thing that wasn't advertised on Hotels.com where I booked it, is that it isn't a full service hotel. That means you don't have any housekeeping while you're there; if you want new towels, you can bring the used ones to the desk and they'll exchange them but otherwise nothing unless you stay over a week. Our room also had a kitchenette but didn't come stocked unless you requested the things you wanted. Our room definitely was dated and not the cleanest. On one bed, the sheets were stained. In the bathroom, some sort of dried ?soap, ?cleaner was left on the shelf, and there was hair by the kitchen sink. The towels were clean though. The location was a bit far for things like Disneyland, but we rented a car and therefore this was not an issue. The staff were super lovely and we had no issues... payment went through and they didn't have hidden fees for anything, which was nice. I travel a lot and find this happens quite a bit. The breakfast is a grab-and-go style... meaning muffins, packaged oatmeal and granola bars... it was handy one morning but otherwise we skipped it. Wouldn't necessarily stay again- cleanliness is a BIG thing for me.... that being said, I travel with a sleeping bag liner so I don't have to actually touch any of the bed linens with my skin. However, it was cheap, no issues/hidden fees, and lovely staff. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for 5 days with my son and husband... it was okay value for money.... however, one thing that wasn't advertised on Hotels.com where I booked it, is that it isn't a full service hotel. That means you don't have any housekeeping while you're there; if you want new towels, you can bring the used ones to the desk and they'll exchange them but otherwise nothing unless you stay over a week. Our room also had a kitchenette but didn't come stocked unless you requested the things you wanted. 
+Our room definitely was dated and not the cleanest. On one bed, the sheets were stained. In the bathroom, some sort of dried ?soap, ?cleaner was left on the shelf, and there was hair by the kitchen sink. The towels were clean though. 
+The location was a bit far for things like Disneyland, but we rented a car and therefore this was not an issue. 
+The staff were super lovely and we had no issues... payment went through and they didn't have hidden fees for anything, which was nice. I travel a lot and find this happens quite a bit. 
+The breakfast is a grab-and-go style... meaning muffins, packaged oatmeal and granola bars... it was handy one morning but otherwise we skipped it. 
+Wouldn't necessarily stay again- cleanliness is a BIG thing for me.... that being said, I travel with a sleeping bag liner so I don't have...Stayed at this hotel for 5 days with my son and husband... it was okay value for money.... however, one thing that wasn't advertised on Hotels.com where I booked it, is that it isn't a full service hotel. That means you don't have any housekeeping while you're there; if you want new towels, you can bring the used ones to the desk and they'll exchange them but otherwise nothing unless you stay over a week. Our room also had a kitchenette but didn't come stocked unless you requested the things you wanted. Our room definitely was dated and not the cleanest. On one bed, the sheets were stained. In the bathroom, some sort of dried ?soap, ?cleaner was left on the shelf, and there was hair by the kitchen sink. The towels were clean though. The location was a bit far for things like Disneyland, but we rented a car and therefore this was not an issue. The staff were super lovely and we had no issues... payment went through and they didn't have hidden fees for anything, which was nice. I travel a lot and find this happens quite a bit. The breakfast is a grab-and-go style... meaning muffins, packaged oatmeal and granola bars... it was handy one morning but otherwise we skipped it. Wouldn't necessarily stay again- cleanliness is a BIG thing for me.... that being said, I travel with a sleeping bag liner so I don't have to actually touch any of the bed linens with my skin. However, it was cheap, no issues/hidden fees, and lovely staff. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r419999351-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>419999351</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>Amazing value for monwy</t>
+  </si>
+  <si>
+    <t>Really pleased with my recent stay at ESA, thanks so much to crystal for the wonderful customer service.Pros: kitchenette, pet policy, comfy beds, clean, close to beach and shops without the price tag.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded September 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2016</t>
+  </si>
+  <si>
+    <t>Really pleased with my recent stay at ESA, thanks so much to crystal for the wonderful customer service.Pros: kitchenette, pet policy, comfy beds, clean, close to beach and shops without the price tag.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r409545960-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>409545960</t>
+  </si>
+  <si>
+    <t>08/23/2016</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>I stayed here in July 2016 for 4 days and thought it was good value for the money. Hotels are expensive in this area and this hotel was a good price for the area. The room was clean and quiet. The bed was comfortable. There was a small kitchen that I didn't use, but it was clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded August 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here in July 2016 for 4 days and thought it was good value for the money. Hotels are expensive in this area and this hotel was a good price for the area. The room was clean and quiet. The bed was comfortable. There was a small kitchen that I didn't use, but it was clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r407032283-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>407032283</t>
+  </si>
+  <si>
+    <t>08/18/2016</t>
+  </si>
+  <si>
+    <t>A Great Place--but not for everyone</t>
+  </si>
+  <si>
+    <t>So I had a chance to stay here overnight as a recommendation from a friend who works in the area. As far as the hotel itself is concerned--it's a really nice place. If you are lucky enough to be checked in by Carmen, you are a lucky person. She ROCKS. Super friendly and extremely accommodating. My room is clean, fairly good size, has a kitchen with a full size refrigerator and 2 burner stove. So for someone who would be staying a week or more and doesn't want to eat out all the time (because, really, who does?) this place is perfect. But, for someone like me, who is only here for a couple of days, it wasn't that convenient. There is no ice machine, no pool, no gym, and the breakfast is something to be more desired. For the price I paid (or even less), I could have stayed at a different hotel and had the pool, gym, ice machine AND a free hot breakfast.  Bottom line: It's called Extended Stay America. These are the people they cater to, so it's a great place in my opinion. For me, however, it just didn't fit.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded August 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2016</t>
+  </si>
+  <si>
+    <t>So I had a chance to stay here overnight as a recommendation from a friend who works in the area. As far as the hotel itself is concerned--it's a really nice place. If you are lucky enough to be checked in by Carmen, you are a lucky person. She ROCKS. Super friendly and extremely accommodating. My room is clean, fairly good size, has a kitchen with a full size refrigerator and 2 burner stove. So for someone who would be staying a week or more and doesn't want to eat out all the time (because, really, who does?) this place is perfect. But, for someone like me, who is only here for a couple of days, it wasn't that convenient. There is no ice machine, no pool, no gym, and the breakfast is something to be more desired. For the price I paid (or even less), I could have stayed at a different hotel and had the pool, gym, ice machine AND a free hot breakfast.  Bottom line: It's called Extended Stay America. These are the people they cater to, so it's a great place in my opinion. For me, however, it just didn't fit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r392936924-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>392936924</t>
+  </si>
+  <si>
+    <t>07/15/2016</t>
+  </si>
+  <si>
+    <t>Just an average hotel in the area.</t>
+  </si>
+  <si>
+    <t>Just average. There are much better places to stay. For the same  or more money you can stay at the Hilton Garden Inn, Courtyard by Mariott, the Prominence Hotel and Suites etc. This is where we always stayed when visiting relatives but now we stay at The Prominence which is better by far. .</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r385100196-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>385100196</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>We had a great stay. The rooms were very clean, staff was very polite and helpful. Especially manager Jay he took care of any cares or concerns. I would for sure stay there again. Top notch place at a great price. When I needed fresh towels they were with them fast. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded June 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2016</t>
+  </si>
+  <si>
+    <t>We had a great stay. The rooms were very clean, staff was very polite and helpful. Especially manager Jay he took care of any cares or concerns. I would for sure stay there again. Top notch place at a great price. When I needed fresh towels they were with them fast. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r385099657-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>385099657</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>The hotel manager Jay provided an excellent customer service and he made my stay very pleasant. His quick response to customer inquiries are fast and efficient. The hotel is clean and the amenities are accessible.Thanks Jay,MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel manager Jay provided an excellent customer service and he made my stay very pleasant. His quick response to customer inquiries are fast and efficient. The hotel is clean and the amenities are accessible.Thanks Jay,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r365542704-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>365542704</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>Good Location</t>
+  </si>
+  <si>
+    <t>Well, this hotel was is a good location for a party we were attending.   HOWEVER, we wanted to check in early (1:00 PM) and the front desk said the rooms were not cleaned yet and check in was at 3:00 PM.   The desk clerk was very polite but you could tell she could of used another person to help her.   Finally, at 3:00  (other people ready to check in, also) were told that rooms were being cleaned still.   We finally got our room key and we were put into a room facing the front parking lot on the ground floor.   It was like we were IN the front parking lot.   Cars coming and going all night long with the early morning departures letting their cars idle for quite some time.     Now, for the room....not bad except it looks they just re painted and there was paint on the frame of the mirror, on the drawers and on the table.   Hello,  drop cloths help.    The lamp shades were all crooked and looks they needed to be replaced....All in all, it was $104.00 total but next time I think we would go the extra $20.00 or so and stay in a nicer place.     Having traveled for my work for over 20 years I have stayed in many, many hotels and if I had to rate this one it would be a 4 or so.   The room just looked tired and worn out.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Well, this hotel was is a good location for a party we were attending.   HOWEVER, we wanted to check in early (1:00 PM) and the front desk said the rooms were not cleaned yet and check in was at 3:00 PM.   The desk clerk was very polite but you could tell she could of used another person to help her.   Finally, at 3:00  (other people ready to check in, also) were told that rooms were being cleaned still.   We finally got our room key and we were put into a room facing the front parking lot on the ground floor.   It was like we were IN the front parking lot.   Cars coming and going all night long with the early morning departures letting their cars idle for quite some time.     Now, for the room....not bad except it looks they just re painted and there was paint on the frame of the mirror, on the drawers and on the table.   Hello,  drop cloths help.    The lamp shades were all crooked and looks they needed to be replaced....All in all, it was $104.00 total but next time I think we would go the extra $20.00 or so and stay in a nicer place.     Having traveled for my work for over 20 years I have stayed in many, many hotels and if I had to rate this one it would be a 4 or so.   The room just looked tired and worn out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r363866467-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>363866467</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>Dissapointment at Extended Stay America</t>
+  </si>
+  <si>
+    <t>This was our first experience with Extended Stay America- so we did not know what to expect.  When we arrived at the hotel a guest was at front desk complaining about the rooms saying they were unclean.  Consequently the front desk clerk blocked the rooms and our room was not available for check in. They sent us to another Extended Stay about 20 minutes away.  We did not enjoy the stay at that hotel.  However I will say that Lake Forest management did well by offering us a free stay next time.  On our trip we needed accommodations again a few days later so we booked this property again in Lake Forest.  The elevator was not working and we were told it would be out for 2 weeks.  All the dirty laundry was piled on the stair landing which all guests had to use as the elevator was not working.   Our bed had no mattress cover- just a thin sheet (with some stains) directly on the bed.  I complained and was able at least to get another sheet to put over the sheet.  We wanted ice in our room and discovered Extended Stays do not have ice machines.  In fairness, I guess since they provide little kitchenettes, they expect you to make your own ice.  The properties have minimum service.  There is no engineering or housekeeping staff in evenings. So if you need something - you are unlikely to get...This was our first experience with Extended Stay America- so we did not know what to expect.  When we arrived at the hotel a guest was at front desk complaining about the rooms saying they were unclean.  Consequently the front desk clerk blocked the rooms and our room was not available for check in. They sent us to another Extended Stay about 20 minutes away.  We did not enjoy the stay at that hotel.  However I will say that Lake Forest management did well by offering us a free stay next time.  On our trip we needed accommodations again a few days later so we booked this property again in Lake Forest.  The elevator was not working and we were told it would be out for 2 weeks.  All the dirty laundry was piled on the stair landing which all guests had to use as the elevator was not working.   Our bed had no mattress cover- just a thin sheet (with some stains) directly on the bed.  I complained and was able at least to get another sheet to put over the sheet.  We wanted ice in our room and discovered Extended Stays do not have ice machines.  In fairness, I guess since they provide little kitchenettes, they expect you to make your own ice.  The properties have minimum service.  There is no engineering or housekeeping staff in evenings. So if you need something - you are unlikely to get it.  The front desk person is the only one on duty.  They have been friendly and polite - but there is only so much they can do.  And on top of all this - I found the rates at the hotel to be higher than surrounding hotels offering more service.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was our first experience with Extended Stay America- so we did not know what to expect.  When we arrived at the hotel a guest was at front desk complaining about the rooms saying they were unclean.  Consequently the front desk clerk blocked the rooms and our room was not available for check in. They sent us to another Extended Stay about 20 minutes away.  We did not enjoy the stay at that hotel.  However I will say that Lake Forest management did well by offering us a free stay next time.  On our trip we needed accommodations again a few days later so we booked this property again in Lake Forest.  The elevator was not working and we were told it would be out for 2 weeks.  All the dirty laundry was piled on the stair landing which all guests had to use as the elevator was not working.   Our bed had no mattress cover- just a thin sheet (with some stains) directly on the bed.  I complained and was able at least to get another sheet to put over the sheet.  We wanted ice in our room and discovered Extended Stays do not have ice machines.  In fairness, I guess since they provide little kitchenettes, they expect you to make your own ice.  The properties have minimum service.  There is no engineering or housekeeping staff in evenings. So if you need something - you are unlikely to get...This was our first experience with Extended Stay America- so we did not know what to expect.  When we arrived at the hotel a guest was at front desk complaining about the rooms saying they were unclean.  Consequently the front desk clerk blocked the rooms and our room was not available for check in. They sent us to another Extended Stay about 20 minutes away.  We did not enjoy the stay at that hotel.  However I will say that Lake Forest management did well by offering us a free stay next time.  On our trip we needed accommodations again a few days later so we booked this property again in Lake Forest.  The elevator was not working and we were told it would be out for 2 weeks.  All the dirty laundry was piled on the stair landing which all guests had to use as the elevator was not working.   Our bed had no mattress cover- just a thin sheet (with some stains) directly on the bed.  I complained and was able at least to get another sheet to put over the sheet.  We wanted ice in our room and discovered Extended Stays do not have ice machines.  In fairness, I guess since they provide little kitchenettes, they expect you to make your own ice.  The properties have minimum service.  There is no engineering or housekeeping staff in evenings. So if you need something - you are unlikely to get it.  The front desk person is the only one on duty.  They have been friendly and polite - but there is only so much they can do.  And on top of all this - I found the rates at the hotel to be higher than surrounding hotels offering more service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r356839901-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>356839901</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>Great Base Camp for the area</t>
+  </si>
+  <si>
+    <t>We have stayed here 3 times so far this year. A friend that lives in the area recommended it after she had stayed there while her house was under repair. We really like the front desk personnel- Jay and Crystal are especially helpful.  We like being able to save money by staying at an extended stay hotel where we have a full size fridge and can cook some of the times. After you check in, you can tell the front desk what kitchen items you would like (coffee maker, plates, pans, etc). They will give you as many ice cube trays as you want! The beds are very comfortable- firm with a nice pillow top.  Although they do not have daily housekeeping, they will exchange your towels any time you want.  We had no problem making our own bed and taking the trash out every day.  They have a very nice laundry room.  They also allow pets with a fee. The last time we stayed here we had a housekeeping issue and Crystal came up immediately to take care of it.  It is in a convenient location- everything you would need within a mile or two, and 5 miles from the I 5 Freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded March 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2016</t>
+  </si>
+  <si>
+    <t>We have stayed here 3 times so far this year. A friend that lives in the area recommended it after she had stayed there while her house was under repair. We really like the front desk personnel- Jay and Crystal are especially helpful.  We like being able to save money by staying at an extended stay hotel where we have a full size fridge and can cook some of the times. After you check in, you can tell the front desk what kitchen items you would like (coffee maker, plates, pans, etc). They will give you as many ice cube trays as you want! The beds are very comfortable- firm with a nice pillow top.  Although they do not have daily housekeeping, they will exchange your towels any time you want.  We had no problem making our own bed and taking the trash out every day.  They have a very nice laundry room.  They also allow pets with a fee. The last time we stayed here we had a housekeeping issue and Crystal came up immediately to take care of it.  It is in a convenient location- everything you would need within a mile or two, and 5 miles from the I 5 Freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r349633383-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>349633383</t>
+  </si>
+  <si>
+    <t>02/21/2016</t>
+  </si>
+  <si>
+    <t>Waste of Money</t>
+  </si>
+  <si>
+    <t>I stayed at this place a week ago for a night with group of families. It was stuffy, smelly rooms, we could find a cockroach in a room, Bed was bad - no sleep quality. I will never recommend this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded February 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this place a week ago for a night with group of families. It was stuffy, smelly rooms, we could find a cockroach in a room, Bed was bad - no sleep quality. I will never recommend this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r348807982-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>348807982</t>
+  </si>
+  <si>
+    <t>02/18/2016</t>
+  </si>
+  <si>
+    <t>Great Staff and Customer Service</t>
+  </si>
+  <si>
+    <t>The hotel itself is similar like all the other Extended Stay's, however, its the staff here that makes this one great.  I stayed at this location for roughly two months and have never had an issue or any complaints.  Everyone from the manager, front desk staff, and even housekeeping was always so friendly and helpful.  I totally recommend this location!Parking situation: GreatLaundry: Well kept area/always clean facilityInterior common areas: Always clean and well keptExterior: Well maintained/landscapedMoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel itself is similar like all the other Extended Stay's, however, its the staff here that makes this one great.  I stayed at this location for roughly two months and have never had an issue or any complaints.  Everyone from the manager, front desk staff, and even housekeeping was always so friendly and helpful.  I totally recommend this location!Parking situation: GreatLaundry: Well kept area/always clean facilityInterior common areas: Always clean and well keptExterior: Well maintained/landscapedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r341993399-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>341993399</t>
+  </si>
+  <si>
+    <t>01/22/2016</t>
+  </si>
+  <si>
+    <t>STAY @  EXTENDED STAY LF &amp; LEAVE WITH AN EXTENDED FAMILY</t>
+  </si>
+  <si>
+    <t>Best  little home away from home great staff with JAY CRYSTAL CASSANDRA ARTURO MARIO CARMEN AND MOHAMMED. main hotel staff I encountered and they were  all  friendly accommodating make you feel relaxed and at a little home away from homeMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded February 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2016</t>
+  </si>
+  <si>
+    <t>Best  little home away from home great staff with JAY CRYSTAL CASSANDRA ARTURO MARIO CARMEN AND MOHAMMED. main hotel staff I encountered and they were  all  friendly accommodating make you feel relaxed and at a little home away from homeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r328025674-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>328025674</t>
+  </si>
+  <si>
+    <t>11/20/2015</t>
+  </si>
+  <si>
+    <t>Good price and location</t>
+  </si>
+  <si>
+    <t>Nice place to stay with the feel of an apartment with a full kitchen.  Mario at the front desk was awesome and so very friendly every time we saw him.  They have a really good price per room compared to the other hotels we called in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded November 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2015</t>
+  </si>
+  <si>
+    <t>Nice place to stay with the feel of an apartment with a full kitchen.  Mario at the front desk was awesome and so very friendly every time we saw him.  They have a really good price per room compared to the other hotels we called in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r321180910-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>321180910</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t>Horrible beds!!!  Beware!!!</t>
+  </si>
+  <si>
+    <t>Hotel overall is nice and staff is friendly...... however the beds are literally the worst I've ever come across!!!  They are cheap mattresses that squeak with every little movement.  No exaggeration!! I asked the front desk if I could change rooms hoping this was just a bad one but the "newer" room she switched me to was basically the same.  The mattress was a bit thicker but still very squeaky and lumpy.  I had to write a review about this.  Management, you need to change the mattresses.  Absolutely the worst bed I've ever slept on.  Save your money and book a room somewhere else.  You will thank me.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded November 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2015</t>
+  </si>
+  <si>
+    <t>Hotel overall is nice and staff is friendly...... however the beds are literally the worst I've ever come across!!!  They are cheap mattresses that squeak with every little movement.  No exaggeration!! I asked the front desk if I could change rooms hoping this was just a bad one but the "newer" room she switched me to was basically the same.  The mattress was a bit thicker but still very squeaky and lumpy.  I had to write a review about this.  Management, you need to change the mattresses.  Absolutely the worst bed I've ever slept on.  Save your money and book a room somewhere else.  You will thank me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r310347241-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>310347241</t>
+  </si>
+  <si>
+    <t>09/14/2015</t>
+  </si>
+  <si>
+    <t>Dirty housekeper,  dirty room</t>
+  </si>
+  <si>
+    <t>Good location. Housekeeper didn't change the sheets with a stain and hair,  when we check in.  Bed skirt dirty, under the kitchen sink, dirty and paper left behind.  Under the bathroom sink dirty too. You can see the dust in the furniture . We complain but the hotel didn't help much because we booked through priceline, they only sent the same housekeeper to change the sheets.   Extra charge if you want you room clean everyday.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded September 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2015</t>
+  </si>
+  <si>
+    <t>Good location. Housekeeper didn't change the sheets with a stain and hair,  when we check in.  Bed skirt dirty, under the kitchen sink, dirty and paper left behind.  Under the bathroom sink dirty too. You can see the dust in the furniture . We complain but the hotel didn't help much because we booked through priceline, they only sent the same housekeeper to change the sheets.   Extra charge if you want you room clean everyday.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r291089101-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>291089101</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Unsatisfied Vacation</t>
+  </si>
+  <si>
+    <t>Sad to say but this place gives "retro" a bad name. Paint peeling, microwave did not work, bath towels that not only shredded but had hair on them from who ever had folded the towels, bed was soooo lumpy that I thought I was sleeping on a bed of oatmeal, pillows were so flat that they resembled pancakes...speaking of pancakes, the advertisement for the hotel should not read "breakfast" but SHOULD read "packaged muffins, granola bars, apples/oranges and coffee".  For the room and what it "offered" the price should have reflected the "retro" price of the 50's. If a person is traveling and needs to rest their bodies for the night save your money and stay at Motel 6 or something similar.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Sad to say but this place gives "retro" a bad name. Paint peeling, microwave did not work, bath towels that not only shredded but had hair on them from who ever had folded the towels, bed was soooo lumpy that I thought I was sleeping on a bed of oatmeal, pillows were so flat that they resembled pancakes...speaking of pancakes, the advertisement for the hotel should not read "breakfast" but SHOULD read "packaged muffins, granola bars, apples/oranges and coffee".  For the room and what it "offered" the price should have reflected the "retro" price of the 50's. If a person is traveling and needs to rest their bodies for the night save your money and stay at Motel 6 or something similar.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r289972637-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>289972637</t>
+  </si>
+  <si>
+    <t>07/17/2015</t>
+  </si>
+  <si>
+    <t>It is good a Hotel to stay on Economic. Staff is very cooperative.</t>
+  </si>
+  <si>
+    <t>I stayed here with my family for 12 Days. it is Safe and good location as there is a very Big walking Trail where we were used to go every morning and evening.I had a very food time over there as Staff was very cooperative always helpful if you ask anything and it is available then they try their best to provide.RegardsRajesh+1-678-6225699</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r285622956-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>285622956</t>
+  </si>
+  <si>
+    <t>07/04/2015</t>
+  </si>
+  <si>
+    <t>Not my First Choice</t>
+  </si>
+  <si>
+    <t>Needed a stop in Lake Forest/Mission Viejo for two nights, separated by a few days, then back two more.  My usual selection of hotels were either booked solid or jacked-up prices.First stop at an Extended Stay. Convenient location, nice room, fine "grab-and-go" breakfast.  BUT horrific beds.  Never been in worst in many years.  We cancelled the second stay and went to a competitor where beds were excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded July 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2015</t>
+  </si>
+  <si>
+    <t>Needed a stop in Lake Forest/Mission Viejo for two nights, separated by a few days, then back two more.  My usual selection of hotels were either booked solid or jacked-up prices.First stop at an Extended Stay. Convenient location, nice room, fine "grab-and-go" breakfast.  BUT horrific beds.  Never been in worst in many years.  We cancelled the second stay and went to a competitor where beds were excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r270054982-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>270054982</t>
+  </si>
+  <si>
+    <t>05/04/2015</t>
+  </si>
+  <si>
+    <t>2-star motel</t>
+  </si>
+  <si>
+    <t>It is a 2-star motel and that pretty much summarizes it. You need to have the right expectation for it and not to be fooled by the professional photos. Carpets are dirty in both the hallway and the room. There is a strange smell probably resulted from all the cooking. Towels are worn out and bathtub has stains cannot be cleaned. Free Wi-Fi is slow unless you pay extra for the "hi-speed enhanced". Complimentary breakfast is a joke. There's only packaged muffins, coffee and apples.Two positive things though: 1) Rate is cheap; 2) Front desk staff are helpful.If you are considering this place because it seems to be of great value, don't get your hope high.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded May 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2015</t>
+  </si>
+  <si>
+    <t>It is a 2-star motel and that pretty much summarizes it. You need to have the right expectation for it and not to be fooled by the professional photos. Carpets are dirty in both the hallway and the room. There is a strange smell probably resulted from all the cooking. Towels are worn out and bathtub has stains cannot be cleaned. Free Wi-Fi is slow unless you pay extra for the "hi-speed enhanced". Complimentary breakfast is a joke. There's only packaged muffins, coffee and apples.Two positive things though: 1) Rate is cheap; 2) Front desk staff are helpful.If you are considering this place because it seems to be of great value, don't get your hope high.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r270037424-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>270037424</t>
+  </si>
+  <si>
+    <t>DON'T DO IT!</t>
+  </si>
+  <si>
+    <t>This place is disgusting! I have stayed at low budget hotels but this one takes the cake. I can't believe these people would offer rooms in the condition that they are. I kid you not, everywhere I turned my head I would see scuff marks, stains or something broken in the room. The minute I entered my room I smelled body odor and I wasn't jumping into the bed like I always do. I was disgusted smelling and looking at everything wrong in my room. I busted out of my phone to take video because I wanted to keep a record of everything wrong with this room. This is gross. Who ever runs this hotel should be ashamed. The furniture is all beat up, stained and worn down. Take some pride when it comes to the hospitality industry. I have never been so disgusted in my entire life. I thought because the hotel was located in Lake Forest that is would have some class, my mistake. I cannot recommend this hotel, please spend the extra $10 a night and stay somewhere that cares about your comfort.MoreShow less</t>
+  </si>
+  <si>
+    <t>This place is disgusting! I have stayed at low budget hotels but this one takes the cake. I can't believe these people would offer rooms in the condition that they are. I kid you not, everywhere I turned my head I would see scuff marks, stains or something broken in the room. The minute I entered my room I smelled body odor and I wasn't jumping into the bed like I always do. I was disgusted smelling and looking at everything wrong in my room. I busted out of my phone to take video because I wanted to keep a record of everything wrong with this room. This is gross. Who ever runs this hotel should be ashamed. The furniture is all beat up, stained and worn down. Take some pride when it comes to the hospitality industry. I have never been so disgusted in my entire life. I thought because the hotel was located in Lake Forest that is would have some class, my mistake. I cannot recommend this hotel, please spend the extra $10 a night and stay somewhere that cares about your comfort.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r266718140-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>266718140</t>
+  </si>
+  <si>
+    <t>04/19/2015</t>
+  </si>
+  <si>
+    <t>Did I mention dirty?</t>
+  </si>
+  <si>
+    <t>My unfortunate stay started when I arrived in my room, pulled back the bed spread and discovered someone else's hairs in the bed. After that joyous revelation I flew down to the front desk and asked for another room. What they gave me was not much better.The overwhelming stench of cigarette smoke was aweful. At my next trip to the front desk I was told that some of the rooms are reserved for smoking patrons. (Even though all of the rooms have a no smoking placard on the door)The halls are dank and dark, the stairway is gross with spilled stuff, and the elevator gives the evidence of never being maintained.Overall, not even an honorable mention.I can't believe a beautiful city like Lake Forest would have a place that would remind you of staying in a halfway house.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded April 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2015</t>
+  </si>
+  <si>
+    <t>My unfortunate stay started when I arrived in my room, pulled back the bed spread and discovered someone else's hairs in the bed. After that joyous revelation I flew down to the front desk and asked for another room. What they gave me was not much better.The overwhelming stench of cigarette smoke was aweful. At my next trip to the front desk I was told that some of the rooms are reserved for smoking patrons. (Even though all of the rooms have a no smoking placard on the door)The halls are dank and dark, the stairway is gross with spilled stuff, and the elevator gives the evidence of never being maintained.Overall, not even an honorable mention.I can't believe a beautiful city like Lake Forest would have a place that would remind you of staying in a halfway house.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r255874427-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>255874427</t>
+  </si>
+  <si>
+    <t>02/22/2015</t>
+  </si>
+  <si>
+    <t>Avoid at all costs!</t>
+  </si>
+  <si>
+    <t>Do not stay here!  There are other hotels in the area who charge only a bit more...remember you get what you pay for!  The room was dirty, old, smelly, nasty.  I got bitten by fleas, the bed was horrible (when you drive around the back of the hotel and see mattresses stacked out in the open, you can't help but wonder what critters have slept on them).  The hotel looks wonderful from the outside and is in a nice area, BUT don't let it fool you.  They give vouchers for people in need to stay at low cost (which unfortunately brings in undesirables).  It looked like a flop house.  We actually found drugs out by our car, there were what appeared to be hookers in the front lobby, when we drove around the side of the hotel, there were 2 women sitting on the stoop shooting up!  I would rather sleep in my car then stay here again.  There were people running up and down the halls all night long, it was miserable.  Spend the extra $15 a night and stay at the Courtyard on Portolla!  I would rate this hotel a zero if I could, but in all fairness, the staff is very polite and seems to try to do the best they can.  Five stars to the staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded March 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2015</t>
+  </si>
+  <si>
+    <t>Do not stay here!  There are other hotels in the area who charge only a bit more...remember you get what you pay for!  The room was dirty, old, smelly, nasty.  I got bitten by fleas, the bed was horrible (when you drive around the back of the hotel and see mattresses stacked out in the open, you can't help but wonder what critters have slept on them).  The hotel looks wonderful from the outside and is in a nice area, BUT don't let it fool you.  They give vouchers for people in need to stay at low cost (which unfortunately brings in undesirables).  It looked like a flop house.  We actually found drugs out by our car, there were what appeared to be hookers in the front lobby, when we drove around the side of the hotel, there were 2 women sitting on the stoop shooting up!  I would rather sleep in my car then stay here again.  There were people running up and down the halls all night long, it was miserable.  Spend the extra $15 a night and stay at the Courtyard on Portolla!  I would rate this hotel a zero if I could, but in all fairness, the staff is very polite and seems to try to do the best they can.  Five stars to the staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r255126859-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>255126859</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Staff wonderful only suggestion accommodate the ones who have to make it their home by giving a low weekly rate times are tuff. Krystal and Carmen always handle everything with respect I have recommended this place to alot of peopleMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded March 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2015</t>
+  </si>
+  <si>
+    <t>Staff wonderful only suggestion accommodate the ones who have to make it their home by giving a low weekly rate times are tuff. Krystal and Carmen always handle everything with respect I have recommended this place to alot of peopleMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r253836252-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>253836252</t>
+  </si>
+  <si>
+    <t>02/12/2015</t>
+  </si>
+  <si>
+    <t>A mixed bag</t>
+  </si>
+  <si>
+    <t>A value given the room rate. Showers and coffee were very good. Grab &amp; Go Breakfast was just average.Sleeping experience with beds was pretty bad. They need to upgrade their beds. Fan in Bathroom was extremely noisy.All in all a mixed bag.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded March 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2015</t>
+  </si>
+  <si>
+    <t>A value given the room rate. Showers and coffee were very good. Grab &amp; Go Breakfast was just average.Sleeping experience with beds was pretty bad. They need to upgrade their beds. Fan in Bathroom was extremely noisy.All in all a mixed bag.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r243700318-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>243700318</t>
+  </si>
+  <si>
+    <t>12/09/2014</t>
+  </si>
+  <si>
+    <t>Best service</t>
+  </si>
+  <si>
+    <t>The rooms are very clean and the beds are very comfortable. Service is great especially at the front desk. I called for extra pillow and they were at my room within 5 minutes. Love the warm feeling that you get when checking in. Will definitely come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded December 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2014</t>
+  </si>
+  <si>
+    <t>The rooms are very clean and the beds are very comfortable. Service is great especially at the front desk. I called for extra pillow and they were at my room within 5 minutes. Love the warm feeling that you get when checking in. Will definitely come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r242626905-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>242626905</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>This is a great place to stay. The rooms are so nice, clean and new. The employees are very polite and helpful. Especially manager Jay he is the best!!! Jay went out of his way to make me feel welcome. The extras were great. Goodies and coffee was really needed. Will stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded December 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2014</t>
+  </si>
+  <si>
+    <t>This is a great place to stay. The rooms are so nice, clean and new. The employees are very polite and helpful. Especially manager Jay he is the best!!! Jay went out of his way to make me feel welcome. The extras were great. Goodies and coffee was really needed. Will stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r242557051-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>242557051</t>
+  </si>
+  <si>
+    <t>Best Manager</t>
+  </si>
+  <si>
+    <t>Jay Kholoma provides an excellent management services to the hotel client by understanding and attending to their needs. Jay responds to client requests in the most professional fashion way that make the client feels at home. Thanks JayMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, Owner at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded December 5, 2014</t>
+  </si>
+  <si>
+    <t>Jay Kholoma provides an excellent management services to the hotel client by understanding and attending to their needs. Jay responds to client requests in the most professional fashion way that make the client feels at home. Thanks JayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r237189810-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>237189810</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>I keep coming back to this extended stay because of the friendly and professional staff. Mario, David, Crystal, and Denise (sorry if I'm forgetting someone) have been so helpful and professional that I wouldn't think of staying anywhere else. Thank you all for your courtesy and professionalism. Highly recommended. Also the rooms are clean and large which is always nice when traveling.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded November 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2014</t>
+  </si>
+  <si>
+    <t>I keep coming back to this extended stay because of the friendly and professional staff. Mario, David, Crystal, and Denise (sorry if I'm forgetting someone) have been so helpful and professional that I wouldn't think of staying anywhere else. Thank you all for your courtesy and professionalism. Highly recommended. Also the rooms are clean and large which is always nice when traveling.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r223920540-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>223920540</t>
+  </si>
+  <si>
+    <t>08/23/2014</t>
+  </si>
+  <si>
+    <t>Well I would say  it is a glorified Motel 6</t>
+  </si>
+  <si>
+    <t>I'm a plumber and have been here for a week. my family came up to stay with me on Thursday and we checked out on Saturday. Their so called breakfast was oatmeal, coffee, fruit and granola bars. There was no juice or milk for the kids to drink or even those little box cereals. The room had a distinct odor couldn't figure that out. The bed being a queen was ok but the sheets never stayed on the mattress. I understand it's a extended stay but for the people that are there for a shorter period should still have the beds made up in the morning and fresh towels if needed. On the plus size having a full size fridge in the room was nice and the coffee which is not in the room but in the main lobby was good. The staff when we did encounter them were always nice. We did have one night clerk guy tell us we couldn't park our work trucks across two spots. So maybe they should clean up the back of the hotel and make a little more room for there business customers. And for the price and for what we normally get I guess we were expecting more for our money. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded August 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2014</t>
+  </si>
+  <si>
+    <t>I'm a plumber and have been here for a week. my family came up to stay with me on Thursday and we checked out on Saturday. Their so called breakfast was oatmeal, coffee, fruit and granola bars. There was no juice or milk for the kids to drink or even those little box cereals. The room had a distinct odor couldn't figure that out. The bed being a queen was ok but the sheets never stayed on the mattress. I understand it's a extended stay but for the people that are there for a shorter period should still have the beds made up in the morning and fresh towels if needed. On the plus size having a full size fridge in the room was nice and the coffee which is not in the room but in the main lobby was good. The staff when we did encounter them were always nice. We did have one night clerk guy tell us we couldn't park our work trucks across two spots. So maybe they should clean up the back of the hotel and make a little more room for there business customers. And for the price and for what we normally get I guess we were expecting more for our money. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r218419161-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>218419161</t>
+  </si>
+  <si>
+    <t>07/30/2014</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Jay Kholoma was an excellent and professional person in managing the hotel and handling customers request. He was able to make my stay very pleasant, and for sure I will consider the same hotel for my next stay.Thanks JayDemetry, MiladMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded August 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2014</t>
+  </si>
+  <si>
+    <t>Jay Kholoma was an excellent and professional person in managing the hotel and handling customers request. He was able to make my stay very pleasant, and for sure I will consider the same hotel for my next stay.Thanks JayDemetry, MiladMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r180329254-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>180329254</t>
+  </si>
+  <si>
+    <t>10/09/2013</t>
+  </si>
+  <si>
+    <t>Very nice staff, but disgusting room</t>
+  </si>
+  <si>
+    <t>The room was disgusting.  It was dark and depressing inside the hallways, and smelled awful from the elevator through the hallways and in the room.  The room was beyond dirty.  I question whether they cleaned beyond just making the bed.  The staff was very friendly and helpful, though.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded October 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2013</t>
+  </si>
+  <si>
+    <t>The room was disgusting.  It was dark and depressing inside the hallways, and smelled awful from the elevator through the hallways and in the room.  The room was beyond dirty.  I question whether they cleaned beyond just making the bed.  The staff was very friendly and helpful, though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r178762187-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>178762187</t>
+  </si>
+  <si>
+    <t>09/26/2013</t>
+  </si>
+  <si>
+    <t>The staff was fabulous but the beds were AWFUL</t>
+  </si>
+  <si>
+    <t>If not for the staff, I would have checked out after the first night.  The room looked nothing like the internet site layout.  It was mostly clean but the shower had moldy places and a warped floor.  The bed was AWFUL - loud and hard and crappy sheets/comforter.  The pillows weren't bad.The staff was friendly and happy.  The grab n go breakfast worked as advertised (granola bars, fruit, pre-packaged muffins, coffee).The laundry room looked clean and bright but I didn't use it.My parent's stayed at an Extended Stay in Irvine earlier this year and had the same complaint about the beds - so I should have listed to them...Never again will I stay here....but the staff causes me to give out the second star.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>If not for the staff, I would have checked out after the first night.  The room looked nothing like the internet site layout.  It was mostly clean but the shower had moldy places and a warped floor.  The bed was AWFUL - loud and hard and crappy sheets/comforter.  The pillows weren't bad.The staff was friendly and happy.  The grab n go breakfast worked as advertised (granola bars, fruit, pre-packaged muffins, coffee).The laundry room looked clean and bright but I didn't use it.My parent's stayed at an Extended Stay in Irvine earlier this year and had the same complaint about the beds - so I should have listed to them...Never again will I stay here....but the staff causes me to give out the second star.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r175567966-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>175567966</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Everything Is Fine, Except The Location!</t>
+  </si>
+  <si>
+    <t>I basically liked everything about this hotel, except the location. I have no idea why anybody would build a hotel this far from civilization. Maybe because of cheap land? I don't know. What I do know is it is not near anything of use and is far from the freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded September 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2013</t>
+  </si>
+  <si>
+    <t>I basically liked everything about this hotel, except the location. I have no idea why anybody would build a hotel this far from civilization. Maybe because of cheap land? I don't know. What I do know is it is not near anything of use and is far from the freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r165129981-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>165129981</t>
+  </si>
+  <si>
+    <t>06/24/2013</t>
+  </si>
+  <si>
+    <t>Wonderful Experience!  4 Night Stay - May 2013</t>
+  </si>
+  <si>
+    <t>If you're looking for a super clean, quiet, comfortable hotel with excellent management &amp; staff, and all the comforts of home (refrigerator, microwave, cable tv, free internet, etc.) you'll be very happy here!  And dogs are welcome!!  Starting from my initial call to book a room (Lupe the manager answered) to the front desk staff &amp; especially the gentleman who works the night shift (everyone was helpful &amp; friendly)!  Clean, quiet &amp; comfortable - good price &amp; conveniently located! You sense that customer service is a top priority!  I feel super fortunate to have found the Extended Stay America in Lake Forest!  It's a gem of a place!  Thank you! Thank you!  Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>If you're looking for a super clean, quiet, comfortable hotel with excellent management &amp; staff, and all the comforts of home (refrigerator, microwave, cable tv, free internet, etc.) you'll be very happy here!  And dogs are welcome!!  Starting from my initial call to book a room (Lupe the manager answered) to the front desk staff &amp; especially the gentleman who works the night shift (everyone was helpful &amp; friendly)!  Clean, quiet &amp; comfortable - good price &amp; conveniently located! You sense that customer service is a top priority!  I feel super fortunate to have found the Extended Stay America in Lake Forest!  It's a gem of a place!  Thank you! Thank you!  Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r160742429-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>160742429</t>
+  </si>
+  <si>
+    <t>05/14/2013</t>
+  </si>
+  <si>
+    <t>Friendly and accommodating staff!</t>
+  </si>
+  <si>
+    <t>I stay here at least once a month for a few days at a time;  staff at the front is always friendly and helpful with my needs.  this is teh best of teh 3 ESA's i have stayed at 2 in the same city...this one is best.  out of the way slightly, but quiet. Great oatmeal for Bfast, but there is a great coffee place on the corner!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r158414665-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>158414665</t>
+  </si>
+  <si>
+    <t>04/21/2013</t>
+  </si>
+  <si>
+    <t>Dirty...</t>
+  </si>
+  <si>
+    <t>Bleached everything in the place. Handles, shower, shower handles. ALL the silverware and glass ware. Countertops REMOTE CONTROL. Luckily they wash with bleach when washing the sheets. Smelled icky before I cleaned. Stayed and dealt with it because it has modern features and close to parking. I have difficulty walking and I have a dog and they accept dogs.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded April 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2013</t>
+  </si>
+  <si>
+    <t>Bleached everything in the place. Handles, shower, shower handles. ALL the silverware and glass ware. Countertops REMOTE CONTROL. Luckily they wash with bleach when washing the sheets. Smelled icky before I cleaned. Stayed and dealt with it because it has modern features and close to parking. I have difficulty walking and I have a dog and they accept dogs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r157121463-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>157121463</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>convenient, spacious, good WiFi (free)</t>
+  </si>
+  <si>
+    <t>I got this room on a deal with Hotewire.com, so the price was quite a bargain.I only had to spend a night on my way from LA to Laguna beach, so I'm not sure on whether this location would fit with anyone else's needs, but it did the job well for me.I liked the spacious room and the good WiFi signal in the room.Breakfast is very basic (coffee, fruit, snack and oatmil)MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded April 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2013</t>
+  </si>
+  <si>
+    <t>I got this room on a deal with Hotewire.com, so the price was quite a bargain.I only had to spend a night on my way from LA to Laguna beach, so I'm not sure on whether this location would fit with anyone else's needs, but it did the job well for me.I liked the spacious room and the good WiFi signal in the room.Breakfast is very basic (coffee, fruit, snack and oatmil)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r155933582-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>155933582</t>
+  </si>
+  <si>
+    <t>03/28/2013</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>I have been here at the Extended Stay, Lake Forest now for a few months while looking for a home to buy. This hotel has the best front desk staff. Everyone is friendly, welcoming and courteous. The rooms are clean and the hotel is quiet, I have never had a problem here. The parking lot is well lit so I feel safe coming in at night and I never worry about my car being vandalized. There is fresh coffee in the mornings down stairs in the lobby....and it's actually very good along with muffins &amp; fruit. Restaurants/shopping are close by about a mile or two.  I would recommend this hotel to any of my friends/clients. Extended Stay (Lake Forest) is much better than any of the other Extended Stay in Orange county because I have stayed at the others hotels.....Sabrina ArmstrongMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded April 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2013</t>
+  </si>
+  <si>
+    <t>I have been here at the Extended Stay, Lake Forest now for a few months while looking for a home to buy. This hotel has the best front desk staff. Everyone is friendly, welcoming and courteous. The rooms are clean and the hotel is quiet, I have never had a problem here. The parking lot is well lit so I feel safe coming in at night and I never worry about my car being vandalized. There is fresh coffee in the mornings down stairs in the lobby....and it's actually very good along with muffins &amp; fruit. Restaurants/shopping are close by about a mile or two.  I would recommend this hotel to any of my friends/clients. Extended Stay (Lake Forest) is much better than any of the other Extended Stay in Orange county because I have stayed at the others hotels.....Sabrina ArmstrongMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r154999542-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>154999542</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>Just right for my needs</t>
+  </si>
+  <si>
+    <t>All I needed was a quiet and clean place to work and rest, preferably out of the hubbub of tourists or vacationers.  This place was perfect.  Located in an industrial/office community, there is no shopping (and no restaurants) nearby, so you'll have to drive a few miles to find food.  But better yet, bring in some groceries.  The little kitchenette is perfect for preparing light meals.  Desk space was adequate; wi fi was fast.  The room, lobby and surrounding neighborhood were very clean and quiet and felt safe.  Everything seemed pristine and new.  Bed and pillows were awesome--best night of sleep I've had in a long time.  It was a great little retreat for me.  I wish I could have stayed longer.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded March 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2013</t>
+  </si>
+  <si>
+    <t>All I needed was a quiet and clean place to work and rest, preferably out of the hubbub of tourists or vacationers.  This place was perfect.  Located in an industrial/office community, there is no shopping (and no restaurants) nearby, so you'll have to drive a few miles to find food.  But better yet, bring in some groceries.  The little kitchenette is perfect for preparing light meals.  Desk space was adequate; wi fi was fast.  The room, lobby and surrounding neighborhood were very clean and quiet and felt safe.  Everything seemed pristine and new.  Bed and pillows were awesome--best night of sleep I've had in a long time.  It was a great little retreat for me.  I wish I could have stayed longer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r151343860-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>151343860</t>
+  </si>
+  <si>
+    <t>02/03/2013</t>
+  </si>
+  <si>
+    <t>Very nice and friendly</t>
+  </si>
+  <si>
+    <t>My experience at this hotel was great, the staff is very friendly and accommodating. This is a great place to stay and would definitely recommend it to other people. It's clean and the room are very cozy.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded February 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2013</t>
+  </si>
+  <si>
+    <t>My experience at this hotel was great, the staff is very friendly and accommodating. This is a great place to stay and would definitely recommend it to other people. It's clean and the room are very cozy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r148321060-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>148321060</t>
+  </si>
+  <si>
+    <t>12/29/2012</t>
+  </si>
+  <si>
+    <t>Sallybongo</t>
+  </si>
+  <si>
+    <t>First Extended Stay we ever stayed in and in the future, we will seek out this chain.  Excellent service, beyond excellent room and amenities.  Staff went beyond our expectations when I discovered I left my medicine in the room after check-out. Highly recommend this hotel chain to everyone I know.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded January 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2013</t>
+  </si>
+  <si>
+    <t>First Extended Stay we ever stayed in and in the future, we will seek out this chain.  Excellent service, beyond excellent room and amenities.  Staff went beyond our expectations when I discovered I left my medicine in the room after check-out. Highly recommend this hotel chain to everyone I know.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r146723383-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>146723383</t>
+  </si>
+  <si>
+    <t>12/03/2012</t>
+  </si>
+  <si>
+    <t>excellent service</t>
+  </si>
+  <si>
+    <t>I was pleased with the service I received at check in, but also the way the rooms at setup, for people like me that always travel with my wife and almost 3 years old child is very important to have a little kitchen and a refrigerator in the room, not to mention that the kitchen is equiped ready to be used if needed. Great ideaMoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded December 4, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2012</t>
+  </si>
+  <si>
+    <t>I was pleased with the service I received at check in, but also the way the rooms at setup, for people like me that always travel with my wife and almost 3 years old child is very important to have a little kitchen and a refrigerator in the room, not to mention that the kitchen is equiped ready to be used if needed. Great ideaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r138217931-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>138217931</t>
+  </si>
+  <si>
+    <t>08/24/2012</t>
+  </si>
+  <si>
+    <t>Stay away - filthy; dirty sheets</t>
+  </si>
+  <si>
+    <t>I recently booked this place based on other reviews, location and knowing of renovations. Initial impression was fine. Area is pretty quiet, desk attendant was polite etc. 
+After 10 hours on the road, my son and I headed up the stairs to our room after a minor check-in wait... I immediately noticed strong odors in the stairwells which are apparently unventilated. Upon entering the room it was very smelly and hot. I put some items on the counter and they stuck to it. I checked and the counter was about 1/3 sticky. Everything else looked OK, so I took a wash towel and wiped it down. Looked for dish soap as these places have small kitchen areas, but there wasn't any. Since I had to go by the desk so I mentioned this situation and lack of soap and they told me they don't include kitchen soap. They also didn't offer to have someone clean it. They just apologized.
+After returning to room, I found in the bathroom, which appeared reasonably clean, one bar of soap and enough toilet paper to blow your nose. Back to the desk, they did offer the TP, and said I should have gotten more soap and shampoo...fine.
+OK, after we grabbed dinner it was late, so we got in bed. After a few minutes I feel itchy. At first I think bed bugs...pull back the sheets and see black spots, lint and hair...thank goodness...I recently booked this place based on other reviews, location and knowing of renovations. Initial impression was fine. Area is pretty quiet, desk attendant was polite etc. After 10 hours on the road, my son and I headed up the stairs to our room after a minor check-in wait... I immediately noticed strong odors in the stairwells which are apparently unventilated. Upon entering the room it was very smelly and hot. I put some items on the counter and they stuck to it. I checked and the counter was about 1/3 sticky. Everything else looked OK, so I took a wash towel and wiped it down. Looked for dish soap as these places have small kitchen areas, but there wasn't any. Since I had to go by the desk so I mentioned this situation and lack of soap and they told me they don't include kitchen soap. They also didn't offer to have someone clean it. They just apologized.After returning to room, I found in the bathroom, which appeared reasonably clean, one bar of soap and enough toilet paper to blow your nose. Back to the desk, they did offer the TP, and said I should have gotten more soap and shampoo...fine.OK, after we grabbed dinner it was late, so we got in bed. After a few minutes I feel itchy. At first I think bed bugs...pull back the sheets and see black spots, lint and hair...thank goodness it appears to just be dirt, lint, sand, but they are clearly soiled and not new. We looked at the other bed my son was in and it too was soiled and had debris in is. The sheets looked wrinkled and slept in. The desk offered fresh sheets and an apology, but didn't offer to have them changed.Following morning I asked to talk to the manager. These places seem to just be short staffed with minimal attendants. I was told the manager came in at 10:30, when I would be gone. He would call me, so I left my number. He never called. As I got coffee and sat in the tiny lobby area for about 25 minutes, all I heard was the load conversations in spanish of the housekeeper and another hotel employee hanging out in the hall. These two apparently had no work to do and the housekeeper was coughing and hacking really loudly every 30 seconds...sounded really sick. They had no concern at all any guests were being annoyed and just appeared to be taking one long break.Two days later, I got an automated email to review my stay from Extended Stay. They hoped I "was delighted" with my recent stay...I specified all the problems in detail and that I wouldn't be at all likely to stay or recommend this place (or any ES for that matter). This has been over a week now and I haven't heard anything back from anyone. I definitely would steer clear, at least from this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, Owner at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded August 29, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2012</t>
+  </si>
+  <si>
+    <t>I recently booked this place based on other reviews, location and knowing of renovations. Initial impression was fine. Area is pretty quiet, desk attendant was polite etc. 
+After 10 hours on the road, my son and I headed up the stairs to our room after a minor check-in wait... I immediately noticed strong odors in the stairwells which are apparently unventilated. Upon entering the room it was very smelly and hot. I put some items on the counter and they stuck to it. I checked and the counter was about 1/3 sticky. Everything else looked OK, so I took a wash towel and wiped it down. Looked for dish soap as these places have small kitchen areas, but there wasn't any. Since I had to go by the desk so I mentioned this situation and lack of soap and they told me they don't include kitchen soap. They also didn't offer to have someone clean it. They just apologized.
+After returning to room, I found in the bathroom, which appeared reasonably clean, one bar of soap and enough toilet paper to blow your nose. Back to the desk, they did offer the TP, and said I should have gotten more soap and shampoo...fine.
+OK, after we grabbed dinner it was late, so we got in bed. After a few minutes I feel itchy. At first I think bed bugs...pull back the sheets and see black spots, lint and hair...thank goodness...I recently booked this place based on other reviews, location and knowing of renovations. Initial impression was fine. Area is pretty quiet, desk attendant was polite etc. After 10 hours on the road, my son and I headed up the stairs to our room after a minor check-in wait... I immediately noticed strong odors in the stairwells which are apparently unventilated. Upon entering the room it was very smelly and hot. I put some items on the counter and they stuck to it. I checked and the counter was about 1/3 sticky. Everything else looked OK, so I took a wash towel and wiped it down. Looked for dish soap as these places have small kitchen areas, but there wasn't any. Since I had to go by the desk so I mentioned this situation and lack of soap and they told me they don't include kitchen soap. They also didn't offer to have someone clean it. They just apologized.After returning to room, I found in the bathroom, which appeared reasonably clean, one bar of soap and enough toilet paper to blow your nose. Back to the desk, they did offer the TP, and said I should have gotten more soap and shampoo...fine.OK, after we grabbed dinner it was late, so we got in bed. After a few minutes I feel itchy. At first I think bed bugs...pull back the sheets and see black spots, lint and hair...thank goodness it appears to just be dirt, lint, sand, but they are clearly soiled and not new. We looked at the other bed my son was in and it too was soiled and had debris in is. The sheets looked wrinkled and slept in. The desk offered fresh sheets and an apology, but didn't offer to have them changed.Following morning I asked to talk to the manager. These places seem to just be short staffed with minimal attendants. I was told the manager came in at 10:30, when I would be gone. He would call me, so I left my number. He never called. As I got coffee and sat in the tiny lobby area for about 25 minutes, all I heard was the load conversations in spanish of the housekeeper and another hotel employee hanging out in the hall. These two apparently had no work to do and the housekeeper was coughing and hacking really loudly every 30 seconds...sounded really sick. They had no concern at all any guests were being annoyed and just appeared to be taking one long break.Two days later, I got an automated email to review my stay from Extended Stay. They hoped I "was delighted" with my recent stay...I specified all the problems in detail and that I wouldn't be at all likely to stay or recommend this place (or any ES for that matter). This has been over a week now and I haven't heard anything back from anyone. I definitely would steer clear, at least from this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r137625566-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>137625566</t>
+  </si>
+  <si>
+    <t>08/19/2012</t>
+  </si>
+  <si>
+    <t>Not worth the savings</t>
+  </si>
+  <si>
+    <t>I stayed there this weekend anch checked out early. The beds are uncomfortable,there was no hot water. The room itself was outdated and there was a lot of noise from the nursery sprinklers behind the hotel. A very poorly managed hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded August 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2012</t>
+  </si>
+  <si>
+    <t>I stayed there this weekend anch checked out early. The beds are uncomfortable,there was no hot water. The room itself was outdated and there was a lot of noise from the nursery sprinklers behind the hotel. A very poorly managed hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r136240058-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>136240058</t>
+  </si>
+  <si>
+    <t>08/04/2012</t>
+  </si>
+  <si>
+    <t>Think twice before booking this property</t>
+  </si>
+  <si>
+    <t>20% of my time is spent on the road, usually for business for over the last 25 years and I have extensively traveled domestically and abroad, typically in 3rd world countries.  I have very low expectations, accordingly. This property was absolutely the dirtiest, unkept, facility - anywhere.  I felt compelled to sleep with one eye open, not being comfortable in the room I had and was sure I'd leave with bedbug bites.  The floor clearly had not been vacuumed before I got there and the bed was crumpled enough that I had to wonder if they had any maid service at all - even between guests.  The a/c unit creaked like a frog when on.  An early tip off of the experience I was going to have should have been the mound of trash around the refuse bin at the lobby entrance from the parking lot.  Looking ahead, I'll stick with my usual host hotel, even if I have to pay a few bucks more or drive a bit further to my appointments.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded August 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2012</t>
+  </si>
+  <si>
+    <t>20% of my time is spent on the road, usually for business for over the last 25 years and I have extensively traveled domestically and abroad, typically in 3rd world countries.  I have very low expectations, accordingly. This property was absolutely the dirtiest, unkept, facility - anywhere.  I felt compelled to sleep with one eye open, not being comfortable in the room I had and was sure I'd leave with bedbug bites.  The floor clearly had not been vacuumed before I got there and the bed was crumpled enough that I had to wonder if they had any maid service at all - even between guests.  The a/c unit creaked like a frog when on.  An early tip off of the experience I was going to have should have been the mound of trash around the refuse bin at the lobby entrance from the parking lot.  Looking ahead, I'll stick with my usual host hotel, even if I have to pay a few bucks more or drive a bit further to my appointments.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r132406662-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>132406662</t>
+  </si>
+  <si>
+    <t>06/20/2012</t>
+  </si>
+  <si>
+    <t>very friendly and helpful staff</t>
+  </si>
+  <si>
+    <t>The service was really nice at this hotel, and the price is hard to beat in that area.  Room was always clean, and the staff very helpful.  I stayed there for over 3 months, would certainly recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Orange County - Lake Forest, responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>The service was really nice at this hotel, and the price is hard to beat in that area.  Room was always clean, and the staff very helpful.  I stayed there for over 3 months, would certainly recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r130977370-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>130977370</t>
+  </si>
+  <si>
+    <t>05/30/2012</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>The rooms at this hotel are functional, nothing more. The decor seems old and the colors are dark. There was one picture in our room. No suitcase stands and a closet with a curtain over it. We lived in the area for 20 years so we know that it has not been here that long. The halls smell musty as if the carpets were cleaned but not allowed to dry properly.The room itself is clean and the bed is comfortable. there is one small easy chair and two desk chairs. Other than that you sit on the beed. The TV has limited access.The kitchen appliances suit their intended purpose.The staff is cheerful but unhelpful. Asking for promised services will get you a friendly denial. It is close to many good restaurants and shopping centers. On the first two nights we were there we returned from dinner to find the police present. This place seems to miss the point. Most people that stay there are there for multiple days. The rooms should be cheerful not dreary and represent a welcome home base. They do not.  We come to SoCal about once a month for 3-5 days and we want someplace that is inviting. I can not recommend this place even at the reduced rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>The rooms at this hotel are functional, nothing more. The decor seems old and the colors are dark. There was one picture in our room. No suitcase stands and a closet with a curtain over it. We lived in the area for 20 years so we know that it has not been here that long. The halls smell musty as if the carpets were cleaned but not allowed to dry properly.The room itself is clean and the bed is comfortable. there is one small easy chair and two desk chairs. Other than that you sit on the beed. The TV has limited access.The kitchen appliances suit their intended purpose.The staff is cheerful but unhelpful. Asking for promised services will get you a friendly denial. It is close to many good restaurants and shopping centers. On the first two nights we were there we returned from dinner to find the police present. This place seems to miss the point. Most people that stay there are there for multiple days. The rooms should be cheerful not dreary and represent a welcome home base. They do not.  We come to SoCal about once a month for 3-5 days and we want someplace that is inviting. I can not recommend this place even at the reduced rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r129558940-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>129558940</t>
+  </si>
+  <si>
+    <t>05/07/2012</t>
+  </si>
+  <si>
+    <t>Love this place!</t>
+  </si>
+  <si>
+    <t>We have stay here many times and we love it!! The staff is very friendly and helpful.We have never had an issue with any of the rooms we stayed in..Very clean..We will continue to come here knowing that are stay will be just as good as the last time..Also,the recent renovations have made this hotel an even better stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>We have stay here many times and we love it!! The staff is very friendly and helpful.We have never had an issue with any of the rooms we stayed in..Very clean..We will continue to come here knowing that are stay will be just as good as the last time..Also,the recent renovations have made this hotel an even better stay.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2491,4915 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>134</v>
+      </c>
+      <c r="X11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" t="s">
+        <v>142</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>143</v>
+      </c>
+      <c r="X12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>99</v>
+      </c>
+      <c r="O13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>151</v>
+      </c>
+      <c r="X13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>159</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>160</v>
+      </c>
+      <c r="X14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15" t="s">
+        <v>167</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>168</v>
+      </c>
+      <c r="O15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>169</v>
+      </c>
+      <c r="X15" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>173</v>
+      </c>
+      <c r="J16" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" t="s">
+        <v>175</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>168</v>
+      </c>
+      <c r="O16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>169</v>
+      </c>
+      <c r="X16" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" t="s">
+        <v>180</v>
+      </c>
+      <c r="L17" t="s">
+        <v>181</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>168</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>182</v>
+      </c>
+      <c r="X17" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" t="s">
+        <v>187</v>
+      </c>
+      <c r="K18" t="s">
+        <v>188</v>
+      </c>
+      <c r="L18" t="s">
+        <v>189</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>190</v>
+      </c>
+      <c r="X18" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>194</v>
+      </c>
+      <c r="J19" t="s">
+        <v>195</v>
+      </c>
+      <c r="K19" t="s">
+        <v>196</v>
+      </c>
+      <c r="L19" t="s">
+        <v>197</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>198</v>
+      </c>
+      <c r="O19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>199</v>
+      </c>
+      <c r="X19" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>203</v>
+      </c>
+      <c r="J20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" t="s">
+        <v>205</v>
+      </c>
+      <c r="L20" t="s">
+        <v>206</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>207</v>
+      </c>
+      <c r="O20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>208</v>
+      </c>
+      <c r="X20" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>212</v>
+      </c>
+      <c r="J21" t="s">
+        <v>213</v>
+      </c>
+      <c r="K21" t="s">
+        <v>214</v>
+      </c>
+      <c r="L21" t="s">
+        <v>215</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>207</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>216</v>
+      </c>
+      <c r="X21" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>220</v>
+      </c>
+      <c r="J22" t="s">
+        <v>221</v>
+      </c>
+      <c r="K22" t="s">
+        <v>222</v>
+      </c>
+      <c r="L22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>207</v>
+      </c>
+      <c r="O22" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>224</v>
+      </c>
+      <c r="X22" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>227</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>228</v>
+      </c>
+      <c r="J23" t="s">
+        <v>229</v>
+      </c>
+      <c r="K23" t="s">
+        <v>230</v>
+      </c>
+      <c r="L23" t="s">
+        <v>231</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>232</v>
+      </c>
+      <c r="O23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>234</v>
+      </c>
+      <c r="J24" t="s">
+        <v>235</v>
+      </c>
+      <c r="K24" t="s">
+        <v>236</v>
+      </c>
+      <c r="L24" t="s">
+        <v>237</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>238</v>
+      </c>
+      <c r="O24" t="s">
+        <v>142</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>239</v>
+      </c>
+      <c r="X24" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>243</v>
+      </c>
+      <c r="J25" t="s">
+        <v>244</v>
+      </c>
+      <c r="K25" t="s">
+        <v>245</v>
+      </c>
+      <c r="L25" t="s">
+        <v>246</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>238</v>
+      </c>
+      <c r="O25" t="s">
+        <v>142</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>248</v>
+      </c>
+      <c r="J26" t="s">
+        <v>249</v>
+      </c>
+      <c r="K26" t="s">
+        <v>250</v>
+      </c>
+      <c r="L26" t="s">
+        <v>251</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>252</v>
+      </c>
+      <c r="O26" t="s">
+        <v>90</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K27" t="s">
+        <v>256</v>
+      </c>
+      <c r="L27" t="s">
+        <v>257</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>252</v>
+      </c>
+      <c r="O27" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>258</v>
+      </c>
+      <c r="X27" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>261</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>262</v>
+      </c>
+      <c r="J28" t="s">
+        <v>263</v>
+      </c>
+      <c r="K28" t="s">
+        <v>264</v>
+      </c>
+      <c r="L28" t="s">
+        <v>265</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>266</v>
+      </c>
+      <c r="O28" t="s">
+        <v>90</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>268</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>269</v>
+      </c>
+      <c r="J29" t="s">
+        <v>270</v>
+      </c>
+      <c r="K29" t="s">
+        <v>271</v>
+      </c>
+      <c r="L29" t="s">
+        <v>272</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>273</v>
+      </c>
+      <c r="O29" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>274</v>
+      </c>
+      <c r="X29" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>277</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>278</v>
+      </c>
+      <c r="J30" t="s">
+        <v>279</v>
+      </c>
+      <c r="K30" t="s">
+        <v>280</v>
+      </c>
+      <c r="L30" t="s">
+        <v>281</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>282</v>
+      </c>
+      <c r="O30" t="s">
+        <v>90</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>283</v>
+      </c>
+      <c r="X30" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>286</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>287</v>
+      </c>
+      <c r="J31" t="s">
+        <v>288</v>
+      </c>
+      <c r="K31" t="s">
+        <v>289</v>
+      </c>
+      <c r="L31" t="s">
+        <v>290</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>291</v>
+      </c>
+      <c r="O31" t="s">
+        <v>142</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>292</v>
+      </c>
+      <c r="X31" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>295</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>296</v>
+      </c>
+      <c r="J32" t="s">
+        <v>297</v>
+      </c>
+      <c r="K32" t="s">
+        <v>298</v>
+      </c>
+      <c r="L32" t="s">
+        <v>299</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>300</v>
+      </c>
+      <c r="O32" t="s">
+        <v>90</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>301</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>302</v>
+      </c>
+      <c r="J33" t="s">
+        <v>303</v>
+      </c>
+      <c r="K33" t="s">
+        <v>304</v>
+      </c>
+      <c r="L33" t="s">
+        <v>305</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>306</v>
+      </c>
+      <c r="O33" t="s">
+        <v>90</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>307</v>
+      </c>
+      <c r="X33" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>310</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>311</v>
+      </c>
+      <c r="J34" t="s">
+        <v>303</v>
+      </c>
+      <c r="K34" t="s">
+        <v>312</v>
+      </c>
+      <c r="L34" t="s">
+        <v>313</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>306</v>
+      </c>
+      <c r="O34" t="s">
+        <v>142</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>307</v>
+      </c>
+      <c r="X34" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>315</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>316</v>
+      </c>
+      <c r="J35" t="s">
+        <v>317</v>
+      </c>
+      <c r="K35" t="s">
+        <v>318</v>
+      </c>
+      <c r="L35" t="s">
+        <v>319</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>320</v>
+      </c>
+      <c r="O35" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>321</v>
+      </c>
+      <c r="X35" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>324</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>325</v>
+      </c>
+      <c r="J36" t="s">
+        <v>326</v>
+      </c>
+      <c r="K36" t="s">
+        <v>327</v>
+      </c>
+      <c r="L36" t="s">
+        <v>328</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>320</v>
+      </c>
+      <c r="O36" t="s">
+        <v>71</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>321</v>
+      </c>
+      <c r="X36" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>330</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>331</v>
+      </c>
+      <c r="J37" t="s">
+        <v>332</v>
+      </c>
+      <c r="K37" t="s">
+        <v>333</v>
+      </c>
+      <c r="L37" t="s">
+        <v>334</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>335</v>
+      </c>
+      <c r="O37" t="s">
+        <v>71</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>336</v>
+      </c>
+      <c r="X37" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>339</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>340</v>
+      </c>
+      <c r="J38" t="s">
+        <v>341</v>
+      </c>
+      <c r="K38" t="s">
+        <v>342</v>
+      </c>
+      <c r="L38" t="s">
+        <v>343</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>344</v>
+      </c>
+      <c r="O38" t="s">
+        <v>90</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>345</v>
+      </c>
+      <c r="X38" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>348</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>349</v>
+      </c>
+      <c r="J39" t="s">
+        <v>350</v>
+      </c>
+      <c r="K39" t="s">
+        <v>351</v>
+      </c>
+      <c r="L39" t="s">
+        <v>352</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>344</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>345</v>
+      </c>
+      <c r="X39" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>354</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>355</v>
+      </c>
+      <c r="J40" t="s">
+        <v>356</v>
+      </c>
+      <c r="K40" t="s">
+        <v>357</v>
+      </c>
+      <c r="L40" t="s">
+        <v>358</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>359</v>
+      </c>
+      <c r="O40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>360</v>
+      </c>
+      <c r="X40" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>363</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>364</v>
+      </c>
+      <c r="J41" t="s">
+        <v>365</v>
+      </c>
+      <c r="K41" t="s">
+        <v>366</v>
+      </c>
+      <c r="L41" t="s">
+        <v>367</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>368</v>
+      </c>
+      <c r="O41" t="s">
+        <v>90</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>369</v>
+      </c>
+      <c r="X41" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>372</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>373</v>
+      </c>
+      <c r="J42" t="s">
+        <v>374</v>
+      </c>
+      <c r="K42" t="s">
+        <v>375</v>
+      </c>
+      <c r="L42" t="s">
+        <v>376</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>377</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>378</v>
+      </c>
+      <c r="X42" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>381</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>382</v>
+      </c>
+      <c r="J43" t="s">
+        <v>383</v>
+      </c>
+      <c r="K43" t="s">
+        <v>384</v>
+      </c>
+      <c r="L43" t="s">
+        <v>385</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>300</v>
+      </c>
+      <c r="O43" t="s">
+        <v>90</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>386</v>
+      </c>
+      <c r="X43" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>389</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>390</v>
+      </c>
+      <c r="J44" t="s">
+        <v>391</v>
+      </c>
+      <c r="K44" t="s">
+        <v>392</v>
+      </c>
+      <c r="L44" t="s">
+        <v>393</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>394</v>
+      </c>
+      <c r="O44" t="s">
+        <v>90</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>396</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>397</v>
+      </c>
+      <c r="J45" t="s">
+        <v>398</v>
+      </c>
+      <c r="K45" t="s">
+        <v>399</v>
+      </c>
+      <c r="L45" t="s">
+        <v>400</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>394</v>
+      </c>
+      <c r="O45" t="s">
+        <v>90</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>401</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>402</v>
+      </c>
+      <c r="J46" t="s">
+        <v>403</v>
+      </c>
+      <c r="K46" t="s">
+        <v>404</v>
+      </c>
+      <c r="L46" t="s">
+        <v>405</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>394</v>
+      </c>
+      <c r="O46" t="s">
+        <v>71</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>406</v>
+      </c>
+      <c r="X46" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>409</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>410</v>
+      </c>
+      <c r="J47" t="s">
+        <v>411</v>
+      </c>
+      <c r="K47" t="s">
+        <v>412</v>
+      </c>
+      <c r="L47" t="s">
+        <v>413</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>414</v>
+      </c>
+      <c r="O47" t="s">
+        <v>142</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>415</v>
+      </c>
+      <c r="X47" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>418</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>419</v>
+      </c>
+      <c r="J48" t="s">
+        <v>411</v>
+      </c>
+      <c r="K48" t="s">
+        <v>420</v>
+      </c>
+      <c r="L48" t="s">
+        <v>421</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>414</v>
+      </c>
+      <c r="O48" t="s">
+        <v>142</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>415</v>
+      </c>
+      <c r="X48" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>423</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>424</v>
+      </c>
+      <c r="J49" t="s">
+        <v>425</v>
+      </c>
+      <c r="K49" t="s">
+        <v>426</v>
+      </c>
+      <c r="L49" t="s">
+        <v>427</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>428</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>429</v>
+      </c>
+      <c r="X49" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>432</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>433</v>
+      </c>
+      <c r="J50" t="s">
+        <v>434</v>
+      </c>
+      <c r="K50" t="s">
+        <v>435</v>
+      </c>
+      <c r="L50" t="s">
+        <v>436</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>437</v>
+      </c>
+      <c r="O50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>438</v>
+      </c>
+      <c r="X50" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>441</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>442</v>
+      </c>
+      <c r="J51" t="s">
+        <v>443</v>
+      </c>
+      <c r="K51" t="s">
+        <v>444</v>
+      </c>
+      <c r="L51" t="s">
+        <v>445</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>437</v>
+      </c>
+      <c r="O51" t="s">
+        <v>81</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>446</v>
+      </c>
+      <c r="X51" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>449</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>450</v>
+      </c>
+      <c r="J52" t="s">
+        <v>451</v>
+      </c>
+      <c r="K52" t="s">
+        <v>452</v>
+      </c>
+      <c r="L52" t="s">
+        <v>453</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>437</v>
+      </c>
+      <c r="O52" t="s">
+        <v>81</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>454</v>
+      </c>
+      <c r="X52" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>457</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>458</v>
+      </c>
+      <c r="J53" t="s">
+        <v>459</v>
+      </c>
+      <c r="K53" t="s">
+        <v>460</v>
+      </c>
+      <c r="L53" t="s">
+        <v>461</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>462</v>
+      </c>
+      <c r="X53" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>465</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>466</v>
+      </c>
+      <c r="J54" t="s">
+        <v>467</v>
+      </c>
+      <c r="K54" t="s">
+        <v>468</v>
+      </c>
+      <c r="L54" t="s">
+        <v>469</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>470</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>471</v>
+      </c>
+      <c r="X54" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>474</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>475</v>
+      </c>
+      <c r="J55" t="s">
+        <v>467</v>
+      </c>
+      <c r="K55" t="s">
+        <v>476</v>
+      </c>
+      <c r="L55" t="s">
+        <v>477</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>478</v>
+      </c>
+      <c r="O55" t="s">
+        <v>81</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>479</v>
+      </c>
+      <c r="X55" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>481</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>482</v>
+      </c>
+      <c r="J56" t="s">
+        <v>483</v>
+      </c>
+      <c r="K56" t="s">
+        <v>484</v>
+      </c>
+      <c r="L56" t="s">
+        <v>485</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>486</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>487</v>
+      </c>
+      <c r="X56" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>490</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>491</v>
+      </c>
+      <c r="J57" t="s">
+        <v>492</v>
+      </c>
+      <c r="K57" t="s">
+        <v>493</v>
+      </c>
+      <c r="L57" t="s">
+        <v>494</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>495</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>496</v>
+      </c>
+      <c r="X57" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>499</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>500</v>
+      </c>
+      <c r="J58" t="s">
+        <v>501</v>
+      </c>
+      <c r="K58" t="s">
+        <v>502</v>
+      </c>
+      <c r="L58" t="s">
+        <v>503</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>504</v>
+      </c>
+      <c r="O58" t="s">
+        <v>142</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>505</v>
+      </c>
+      <c r="X58" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>508</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>509</v>
+      </c>
+      <c r="J59" t="s">
+        <v>510</v>
+      </c>
+      <c r="K59" t="s">
+        <v>511</v>
+      </c>
+      <c r="L59" t="s">
+        <v>512</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>513</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>514</v>
+      </c>
+      <c r="X59" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>517</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>518</v>
+      </c>
+      <c r="J60" t="s">
+        <v>519</v>
+      </c>
+      <c r="K60" t="s">
+        <v>520</v>
+      </c>
+      <c r="L60" t="s">
+        <v>521</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>522</v>
+      </c>
+      <c r="O60" t="s">
+        <v>90</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>524</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>525</v>
+      </c>
+      <c r="J61" t="s">
+        <v>526</v>
+      </c>
+      <c r="K61" t="s">
+        <v>527</v>
+      </c>
+      <c r="L61" t="s">
+        <v>528</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>529</v>
+      </c>
+      <c r="O61" t="s">
+        <v>71</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>530</v>
+      </c>
+      <c r="X61" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>533</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>534</v>
+      </c>
+      <c r="J62" t="s">
+        <v>535</v>
+      </c>
+      <c r="K62" t="s">
+        <v>536</v>
+      </c>
+      <c r="L62" t="s">
+        <v>537</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>538</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>540</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>541</v>
+      </c>
+      <c r="J63" t="s">
+        <v>542</v>
+      </c>
+      <c r="K63" t="s">
+        <v>543</v>
+      </c>
+      <c r="L63" t="s">
+        <v>544</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>538</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>545</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>546</v>
+      </c>
+      <c r="J64" t="s">
+        <v>547</v>
+      </c>
+      <c r="K64" t="s">
+        <v>548</v>
+      </c>
+      <c r="L64" t="s">
+        <v>549</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>550</v>
+      </c>
+      <c r="X64" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>553</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>554</v>
+      </c>
+      <c r="J65" t="s">
+        <v>555</v>
+      </c>
+      <c r="K65" t="s">
+        <v>556</v>
+      </c>
+      <c r="L65" t="s">
+        <v>557</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>558</v>
+      </c>
+      <c r="O65" t="s">
+        <v>142</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>559</v>
+      </c>
+      <c r="X65" t="s">
+        <v>560</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>562</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>563</v>
+      </c>
+      <c r="J66" t="s">
+        <v>564</v>
+      </c>
+      <c r="K66" t="s">
+        <v>565</v>
+      </c>
+      <c r="L66" t="s">
+        <v>566</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>567</v>
+      </c>
+      <c r="O66" t="s">
+        <v>142</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>568</v>
+      </c>
+      <c r="X66" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>571</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>572</v>
+      </c>
+      <c r="J67" t="s">
+        <v>573</v>
+      </c>
+      <c r="K67" t="s">
+        <v>574</v>
+      </c>
+      <c r="L67" t="s">
+        <v>575</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>576</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>577</v>
+      </c>
+      <c r="X67" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>580</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>581</v>
+      </c>
+      <c r="J68" t="s">
+        <v>582</v>
+      </c>
+      <c r="K68" t="s">
+        <v>583</v>
+      </c>
+      <c r="L68" t="s">
+        <v>584</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>585</v>
+      </c>
+      <c r="O68" t="s">
+        <v>90</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>586</v>
+      </c>
+      <c r="X68" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>589</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>590</v>
+      </c>
+      <c r="J69" t="s">
+        <v>591</v>
+      </c>
+      <c r="K69" t="s">
+        <v>592</v>
+      </c>
+      <c r="L69" t="s">
+        <v>593</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>594</v>
+      </c>
+      <c r="O69" t="s">
+        <v>71</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>595</v>
+      </c>
+      <c r="X69" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>598</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>599</v>
+      </c>
+      <c r="J70" t="s">
+        <v>600</v>
+      </c>
+      <c r="K70" t="s">
+        <v>601</v>
+      </c>
+      <c r="L70" t="s">
+        <v>602</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>594</v>
+      </c>
+      <c r="O70" t="s">
+        <v>90</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>603</v>
+      </c>
+      <c r="X70" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>606</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>607</v>
+      </c>
+      <c r="J71" t="s">
+        <v>608</v>
+      </c>
+      <c r="K71" t="s">
+        <v>609</v>
+      </c>
+      <c r="L71" t="s">
+        <v>610</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>611</v>
+      </c>
+      <c r="O71" t="s">
+        <v>90</v>
+      </c>
+      <c r="P71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>612</v>
+      </c>
+      <c r="X71" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>615</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>616</v>
+      </c>
+      <c r="J72" t="s">
+        <v>617</v>
+      </c>
+      <c r="K72" t="s">
+        <v>618</v>
+      </c>
+      <c r="L72" t="s">
+        <v>619</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>620</v>
+      </c>
+      <c r="X72" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>623</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>624</v>
+      </c>
+      <c r="J73" t="s">
+        <v>625</v>
+      </c>
+      <c r="K73" t="s">
+        <v>626</v>
+      </c>
+      <c r="L73" t="s">
+        <v>627</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>611</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>628</v>
+      </c>
+      <c r="X73" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>631</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>632</v>
+      </c>
+      <c r="J74" t="s">
+        <v>633</v>
+      </c>
+      <c r="K74" t="s">
+        <v>634</v>
+      </c>
+      <c r="L74" t="s">
+        <v>635</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>636</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>637</v>
+      </c>
+      <c r="X74" t="s">
+        <v>638</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>640</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>641</v>
+      </c>
+      <c r="J75" t="s">
+        <v>642</v>
+      </c>
+      <c r="K75" t="s">
+        <v>643</v>
+      </c>
+      <c r="L75" t="s">
+        <v>644</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>645</v>
+      </c>
+      <c r="O75" t="s">
+        <v>71</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>637</v>
+      </c>
+      <c r="X75" t="s">
+        <v>638</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>35421</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>647</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>648</v>
+      </c>
+      <c r="J76" t="s">
+        <v>649</v>
+      </c>
+      <c r="K76" t="s">
+        <v>650</v>
+      </c>
+      <c r="L76" t="s">
+        <v>651</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>645</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>637</v>
+      </c>
+      <c r="X76" t="s">
+        <v>638</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>652</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_276.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_276.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="723">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>bmwmanofaz</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>This hotel is excellent. First it feels more like a studio apartment as opposed to a hotel room and they provide all linens, dishes, towels, appliances to make you feel at home. The staff, Bridget, Carla and manager Jay were all great providing top tier customer service while I was there as well. Lastly, the hotel is close to the 241 and 5 freeways so it makes getting places easy and convenient. Great job! Keep it up!!More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r568204624-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>Absolutely, an unmitigated nightmare. This is NOT a hotel for vacationers. It is literally, a welfare hotel for the homeless or post rehab or the 30 day voucher dependent population of Orange County. Nothing on the website or in the pictures online would even hint at this as a possibility.. To get the promised lower online  rate we had to pay our entire balance upfront. over 5k NZD for a 30 day stay..And once here, realising the condition... we were told no refund for early departure. No daily maid service only weekly and on the scheduled day, no one showed up (we were told they were short handed when we inquired and then rescheduled) missing  and water damaged ceiling tiles and filth were among the list of “ammenities” not listed on ESA’s website.. prior to booking. The lamp in our room had no lightbulb. The phone plate is literally ripped off the phone and the stove does not work!!!   We purchased our own linen for the bed and removed a tiny broken glass vial from between the bed and the nightstand. Orange County Social Services workers were in the hall this morning and Paramedics were in the lobby(?) last night.. The smell of weed coming from the non-smoking rooms is strong enough for a “contact high” in the hallway. And not surprisingly, the outside  key entry pad closest to our room was non-functioning.STAY AWAY from this chain of hotels!!! This...Absolutely, an unmitigated nightmare. This is NOT a hotel for vacationers. It is literally, a welfare hotel for the homeless or post rehab or the 30 day voucher dependent population of Orange County. Nothing on the website or in the pictures online would even hint at this as a possibility.. To get the promised lower online  rate we had to pay our entire balance upfront. over 5k NZD for a 30 day stay..And once here, realising the condition... we were told no refund for early departure. No daily maid service only weekly and on the scheduled day, no one showed up (we were told they were short handed when we inquired and then rescheduled) missing  and water damaged ceiling tiles and filth were among the list of “ammenities” not listed on ESA’s website.. prior to booking. The lamp in our room had no lightbulb. The phone plate is literally ripped off the phone and the stove does not work!!!   We purchased our own linen for the bed and removed a tiny broken glass vial from between the bed and the nightstand. Orange County Social Services workers were in the hall this morning and Paramedics were in the lobby(?) last night.. The smell of weed coming from the non-smoking rooms is strong enough for a “contact high” in the hallway. And not surprisingly, the outside  key entry pad closest to our room was non-functioning.STAY AWAY from this chain of hotels!!! This is deceptive advertising to the point of being considered theft. Truly, the worst hotel experience EVER and I’m including hostel stays in Europe in the 80’s in that assessment. The one and ONLY tiny bright spot is a genuinely, sweet front desk staff. Do not be fooled by the smiling thumbs up stock photos on their website! It’s a LIE!!!STAY AWAY as if this hotel were located in Chernobyl or North Korea...I’m NOT exaggerating..More</t>
   </si>
   <si>
+    <t>G6071SVstevenr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r563470651-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>Perfect staff Initiative and friendly, they hotel is clean and very modern to long term living. Overall a good experience!! Highly recommended if your going to be staying anywhere for a extended period of time.More</t>
   </si>
   <si>
+    <t>leatrizi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r553490558-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -273,6 +285,9 @@
     <t>I was moving across country and came to stay so that I could pack up my car and go. Perfect place to crash and my stuff was safe. The staff was extremely friendly and the grab and go breakfast was the perfect thing.More</t>
   </si>
   <si>
+    <t>dustinl901</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r551916487-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -300,6 +315,9 @@
     <t>Upon Check in we were greeted by the manager Jay who was friendly and prompt when we got in the room everything was clean and ready for our long stay.  Overall the area is nice and so is the staff we will definitely be staying here more often or anytime we go out of town.More</t>
   </si>
   <si>
+    <t>cool_crys2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r550112551-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -327,6 +345,9 @@
     <t>i purpously went back in my emails to give aniother great review to this location as since then ive stayed at 2 other properties and it just reminded me at how amazing this crew is!! jay and his day time crew are the kind of above and beyond customer service that is so rare anymore,,their smiles are endless and their willingness to make your stay as close to perfect as possible is so evident as you see how hard working they are but never short on positivity! Anaheim hills location could learn a lot as I suudenly felt I was in a bad street movie and staff was going to beat me up!! all employees of this company should have to spend a day with jay and employees of lake forest, not a single employee should be left out as I had not a single bad experience with any of them,,you are amazing lake forest extended stayMore</t>
   </si>
   <si>
+    <t>Liz Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r547279871-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -354,6 +375,9 @@
     <t>We went to this hotel with a couple of friends last month. The front desk receptionists were very nice and friendly. They went out of their way to accommodate our requests for additional towels and kitchen items. We booked a 2 full beds that they upgraded to 2 queen beds. Yay! They only give housekeeping every 7 days, which is fine with us. Just make sure that you let them know beforehand that you want your room cleaned. Terry cleaned our room, and she did an excellent job. The only bad thing I can say about the hotel is that the elevator is very creaky, in need of maintenance or replacement.More</t>
   </si>
   <si>
+    <t>j_w_spike</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r545786495-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -381,6 +405,9 @@
     <t>The hotel is adequate but the ratings are too high.  The property is not well maintained and not clean.  The breakfast is instant oatmeal and dry granola bars.  On the positive side, the front desk staff is pleasant and helpful.  More</t>
   </si>
   <si>
+    <t>278rene</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r544898348-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -405,6 +432,9 @@
     <t>I have to say the place it's pretty quite and clean the receptionist Carla fix  a long day of work with a smile, I definitely will come back to this place again and of course I recommend this place if you like relaxing places More</t>
   </si>
   <si>
+    <t>711klaw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r541396433-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -429,6 +459,9 @@
     <t>Although hotel is old, the guest services make up for it. Staff was nice and helpful. They are always cheerful and friendly.Elevator needs maintenance. It creaks whenever we rode on it. Room needs touch-up, but is kept clean. More</t>
   </si>
   <si>
+    <t>britgal2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r541191739-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -456,6 +489,9 @@
     <t>Extremely courteous,friendly and helpful staff. Hotel was quiet and I stayed an extra week because I liked the hotel, its location and the service. Several guests extended their stay and in part this is because the hotel is welcoming, the bed was extremely comfortable and having a small kitchen cuts down on eating out and is convenient.More</t>
   </si>
   <si>
+    <t>Z6829LGstephenp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r537964521-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -480,6 +516,9 @@
     <t>Visited this hotel 2 times first time round was brilliant we like it that much we booked again 2nd time round was terrible poor attitude of staff Car park was treated like a garage people fixing cars through the night and revving engines. We travel from England to see family so frequent lake forest every year Time to find somewhere else More</t>
   </si>
   <si>
+    <t>Tom D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r529291497-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -507,6 +546,9 @@
     <t>People and employees were very nice. This hotel is threadbare at best, the room may never have been thoroughly cleaned, ever.  There were no kitchen items, no coffee pot, the cabinets were actually sticky from never having been cleaned, maybe nicotine build up over decades before being made a non-smoking facility?  Hallways are dark and gloomy.  We checked out immediately after one night.  The windows on the ground floor room we had had to be locked with a special screw apparatus as the original window locks were broken.  I was directed to this hotel by my company's travel site as being acceptable and a cost saver.  My advice is to spend the extra money to have a clean, well-lighted place complete with breakfast and a few other amenities like a coffee pot in the room along with utensils, etc.More</t>
   </si>
   <si>
+    <t>Mike O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r525615885-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -534,6 +576,9 @@
     <t>When the kitchen light burned out it was replaced immediately.  Clean rooms, furnished kitchen supplies like plates, glasses, pots and pans.  I enjoyed my stay all three weeks.  We requested the 1st floor and we got it.  I don't like to wait for the elevator.More</t>
   </si>
   <si>
+    <t>mandssteinfield</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r525579543-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -549,6 +594,9 @@
     <t>We only stayed here due to black mold and asbestos found under our kitchen floor.  General Manager, halfway through our stay, said we had to leave due to a church convention coming in for a couple of days - and my husband was out of town at this point - so stressful!!  Fortunately, the District Manager overrode this terrible decision, extending our stay for 20 more days, if needed! We were at this hotel for 2 weeks, and were most ready to leave once deemed safe to move home! More</t>
   </si>
   <si>
+    <t>thaffner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r513126250-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -573,6 +621,9 @@
     <t>The rooms look nothing like the website pictures!  The whole place has a musty, locker room smell.  Our bedspread had a huge cigarette burn!  No hairdryer in the room!  When we asked about a coffee pot, we were told we would have to wait until someone checked out to get one because they didn't have enough to go around!  We moved to a new hotel after 2 nights! Bad experience!  More</t>
   </si>
   <si>
+    <t>larryt458</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r507753874-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -597,6 +648,9 @@
     <t>We were there for a basketball tournament. Hotel was overbooked. One of our party's pre-paid rooms was sold. Took several hours until 2:00 am to get them a room. Between this hotel and Expedia it was an eye-opening experience. I will not be using either brand again. The room is dingy at best, beds and pillows not great. More</t>
   </si>
   <si>
+    <t>702chaundra</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r505682989-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -624,6 +678,9 @@
     <t>Room was spacious, nice decor &amp; the small kitchen was perfect!!! We traveled for sports but were able to getaway for 1 night of alone time. I cooked dinner &amp; we just relaxed, a great night after driving &amp; sports all day.More</t>
   </si>
   <si>
+    <t>Rickirose77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r496986617-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -651,6 +708,9 @@
     <t>The staff here is very helpful and informative, always smiling and willing to help so you feel comfortable and happy.. love the staff here and the cleanliness of the rooms/ laundry facility, as well as the location !More</t>
   </si>
   <si>
+    <t>Fred K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r494595494-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -675,6 +735,9 @@
     <t>Been about six months since I last stayed and gave it another chance.  Arrived at night, room had no hangers, or TV remote.  When I woke up in the morning I could see the floor had not been cleaned.  The front of the hotel is littered with cigarette butts and elevator has a strange smell similar to a locker room.  the staff however, most helpful and considerate.More</t>
   </si>
   <si>
+    <t>H9012WPmariad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r491421071-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -699,6 +762,9 @@
     <t>The staff was very friendly and helpfully, high marks. The elevator had a musty odor to it, like carpets that had been in standing water for a while. The room had a large stain on the carpet, two large cracks in the windows, and a plastic bag over the fire alarm.More</t>
   </si>
   <si>
+    <t>Ramak R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r459875296-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -717,6 +783,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>Ram m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r454301060-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -744,6 +813,9 @@
     <t>it was close to my office hence stayed there for 2 weeks. staff were friendly, rooms were clean, price was reasonable. it felt like home after couple of days. Overall quite happy with my two weeks stay.More</t>
   </si>
   <si>
+    <t>plj0408</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r451250147-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -759,6 +831,9 @@
     <t>Rooms were dirty and discusting.  Something had been thrown against and smeared on wall..looked like feces.  Dirty or no mattress covers. Guest agent was helpful and moved me twice.  He also was discusted.</t>
   </si>
   <si>
+    <t>Michael G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r441138692-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -777,6 +852,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>tcbsparkle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r440500911-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -799,6 +877,9 @@
   </si>
   <si>
     <t>We stayed here twice in November and like our other stays this year we were very happy.  The rooms were clean and we like having a kitchen. the dishes, pans, coffee cups, etc are available for the asking and it is nice to know they have been through the dishwasher, not just rinsed off and put in the cupboard. The king bed was very comfy. But we think the best thing about staying here is the staff. When we arrived to check in earlier in the month, a guest was having a health issue and Crystal (front desk) calmly, efficiently and compassionately took care of the guest.  Jay, the manager, has given us so much valuable information over the course of our stays. Justina and all the front desk staff make us feel welcome every time we come back. We appreciate having coffee available in the lobby too! More</t>
+  </si>
+  <si>
+    <t>Trinity C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r431544157-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
@@ -832,6 +913,9 @@
 Wouldn't necessarily stay again- cleanliness is a BIG thing for me.... that being said, I travel with a sleeping bag liner so I don't have...Stayed at this hotel for 5 days with my son and husband... it was okay value for money.... however, one thing that wasn't advertised on Hotels.com where I booked it, is that it isn't a full service hotel. That means you don't have any housekeeping while you're there; if you want new towels, you can bring the used ones to the desk and they'll exchange them but otherwise nothing unless you stay over a week. Our room also had a kitchenette but didn't come stocked unless you requested the things you wanted. Our room definitely was dated and not the cleanest. On one bed, the sheets were stained. In the bathroom, some sort of dried ?soap, ?cleaner was left on the shelf, and there was hair by the kitchen sink. The towels were clean though. The location was a bit far for things like Disneyland, but we rented a car and therefore this was not an issue. The staff were super lovely and we had no issues... payment went through and they didn't have hidden fees for anything, which was nice. I travel a lot and find this happens quite a bit. The breakfast is a grab-and-go style... meaning muffins, packaged oatmeal and granola bars... it was handy one morning but otherwise we skipped it. Wouldn't necessarily stay again- cleanliness is a BIG thing for me.... that being said, I travel with a sleeping bag liner so I don't have to actually touch any of the bed linens with my skin. However, it was cheap, no issues/hidden fees, and lovely staff. More</t>
   </si>
   <si>
+    <t>Lobsterollsforever</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r419999351-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -859,6 +943,9 @@
     <t>Really pleased with my recent stay at ESA, thanks so much to crystal for the wonderful customer service.Pros: kitchenette, pet policy, comfy beds, clean, close to beach and shops without the price tag.More</t>
   </si>
   <si>
+    <t>wwilliams3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r409545960-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -886,6 +973,9 @@
     <t>I stayed here in July 2016 for 4 days and thought it was good value for the money. Hotels are expensive in this area and this hotel was a good price for the area. The room was clean and quiet. The bed was comfortable. There was a small kitchen that I didn't use, but it was clean.More</t>
   </si>
   <si>
+    <t>hbgirl-forever</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r407032283-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -913,6 +1003,9 @@
     <t>So I had a chance to stay here overnight as a recommendation from a friend who works in the area. As far as the hotel itself is concerned--it's a really nice place. If you are lucky enough to be checked in by Carmen, you are a lucky person. She ROCKS. Super friendly and extremely accommodating. My room is clean, fairly good size, has a kitchen with a full size refrigerator and 2 burner stove. So for someone who would be staying a week or more and doesn't want to eat out all the time (because, really, who does?) this place is perfect. But, for someone like me, who is only here for a couple of days, it wasn't that convenient. There is no ice machine, no pool, no gym, and the breakfast is something to be more desired. For the price I paid (or even less), I could have stayed at a different hotel and had the pool, gym, ice machine AND a free hot breakfast.  Bottom line: It's called Extended Stay America. These are the people they cater to, so it's a great place in my opinion. For me, however, it just didn't fit.More</t>
   </si>
   <si>
+    <t>cbhello</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r392936924-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -931,6 +1024,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>mdemetry</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r385100196-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -958,6 +1054,9 @@
     <t>We had a great stay. The rooms were very clean, staff was very polite and helpful. Especially manager Jay he took care of any cares or concerns. I would for sure stay there again. Top notch place at a great price. When I needed fresh towels they were with them fast. More</t>
   </si>
   <si>
+    <t>angelerrands</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r385099657-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -973,6 +1072,9 @@
     <t>The hotel manager Jay provided an excellent customer service and he made my stay very pleasant. His quick response to customer inquiries are fast and efficient. The hotel is clean and the amenities are accessible.Thanks Jay,More</t>
   </si>
   <si>
+    <t>tuna18</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r365542704-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1000,6 +1102,9 @@
     <t>Well, this hotel was is a good location for a party we were attending.   HOWEVER, we wanted to check in early (1:00 PM) and the front desk said the rooms were not cleaned yet and check in was at 3:00 PM.   The desk clerk was very polite but you could tell she could of used another person to help her.   Finally, at 3:00  (other people ready to check in, also) were told that rooms were being cleaned still.   We finally got our room key and we were put into a room facing the front parking lot on the ground floor.   It was like we were IN the front parking lot.   Cars coming and going all night long with the early morning departures letting their cars idle for quite some time.     Now, for the room....not bad except it looks they just re painted and there was paint on the frame of the mirror, on the drawers and on the table.   Hello,  drop cloths help.    The lamp shades were all crooked and looks they needed to be replaced....All in all, it was $104.00 total but next time I think we would go the extra $20.00 or so and stay in a nicer place.     Having traveled for my work for over 20 years I have stayed in many, many hotels and if I had to rate this one it would be a 4 or so.   The room just looked tired and worn out.More</t>
   </si>
   <si>
+    <t>James H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r363866467-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1045,6 +1150,9 @@
     <t>We have stayed here 3 times so far this year. A friend that lives in the area recommended it after she had stayed there while her house was under repair. We really like the front desk personnel- Jay and Crystal are especially helpful.  We like being able to save money by staying at an extended stay hotel where we have a full size fridge and can cook some of the times. After you check in, you can tell the front desk what kitchen items you would like (coffee maker, plates, pans, etc). They will give you as many ice cube trays as you want! The beds are very comfortable- firm with a nice pillow top.  Although they do not have daily housekeeping, they will exchange your towels any time you want.  We had no problem making our own bed and taking the trash out every day.  They have a very nice laundry room.  They also allow pets with a fee. The last time we stayed here we had a housekeeping issue and Crystal came up immediately to take care of it.  It is in a convenient location- everything you would need within a mile or two, and 5 miles from the I 5 Freeway.More</t>
   </si>
   <si>
+    <t>Prashant M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r349633383-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1072,6 +1180,9 @@
     <t>I stayed at this place a week ago for a night with group of families. It was stuffy, smelly rooms, we could find a cockroach in a room, Bed was bad - no sleep quality. I will never recommend this place.More</t>
   </si>
   <si>
+    <t>M C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r348807982-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1090,6 +1201,9 @@
     <t>The hotel itself is similar like all the other Extended Stay's, however, its the staff here that makes this one great.  I stayed at this location for roughly two months and have never had an issue or any complaints.  Everyone from the manager, front desk staff, and even housekeeping was always so friendly and helpful.  I totally recommend this location!Parking situation: GreatLaundry: Well kept area/always clean facilityInterior common areas: Always clean and well keptExterior: Well maintained/landscapedMore</t>
   </si>
   <si>
+    <t>bnikkis23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r341993399-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1117,6 +1231,9 @@
     <t>Best  little home away from home great staff with JAY CRYSTAL CASSANDRA ARTURO MARIO CARMEN AND MOHAMMED. main hotel staff I encountered and they were  all  friendly accommodating make you feel relaxed and at a little home away from homeMore</t>
   </si>
   <si>
+    <t>DEENA D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r328025674-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1144,6 +1261,9 @@
     <t>Nice place to stay with the feel of an apartment with a full kitchen.  Mario at the front desk was awesome and so very friendly every time we saw him.  They have a really good price per room compared to the other hotels we called in the area.More</t>
   </si>
   <si>
+    <t>Nonnie562</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r321180910-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1171,6 +1291,9 @@
     <t>Hotel overall is nice and staff is friendly...... however the beds are literally the worst I've ever come across!!!  They are cheap mattresses that squeak with every little movement.  No exaggeration!! I asked the front desk if I could change rooms hoping this was just a bad one but the "newer" room she switched me to was basically the same.  The mattress was a bit thicker but still very squeaky and lumpy.  I had to write a review about this.  Management, you need to change the mattresses.  Absolutely the worst bed I've ever slept on.  Save your money and book a room somewhere else.  You will thank me.More</t>
   </si>
   <si>
+    <t>LuisHurt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r310347241-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1195,6 +1318,9 @@
     <t>Good location. Housekeeper didn't change the sheets with a stain and hair,  when we check in.  Bed skirt dirty, under the kitchen sink, dirty and paper left behind.  Under the bathroom sink dirty too. You can see the dust in the furniture . We complain but the hotel didn't help much because we booked through priceline, they only sent the same housekeeper to change the sheets.   Extra charge if you want you room clean everyday.More</t>
   </si>
   <si>
+    <t>nycgcandi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r291089101-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1216,6 +1342,9 @@
     <t>Sad to say but this place gives "retro" a bad name. Paint peeling, microwave did not work, bath towels that not only shredded but had hair on them from who ever had folded the towels, bed was soooo lumpy that I thought I was sleeping on a bed of oatmeal, pillows were so flat that they resembled pancakes...speaking of pancakes, the advertisement for the hotel should not read "breakfast" but SHOULD read "packaged muffins, granola bars, apples/oranges and coffee".  For the room and what it "offered" the price should have reflected the "retro" price of the 50's. If a person is traveling and needs to rest their bodies for the night save your money and stay at Motel 6 or something similar.More</t>
   </si>
   <si>
+    <t>RAJESH R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r289972637-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1231,6 +1360,9 @@
     <t>I stayed here with my family for 12 Days. it is Safe and good location as there is a very Big walking Trail where we were used to go every morning and evening.I had a very food time over there as Staff was very cooperative always helpful if you ask anything and it is available then they try their best to provide.RegardsRajesh+1-678-6225699</t>
   </si>
   <si>
+    <t>Bob G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r285622956-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1255,6 +1387,9 @@
     <t>Needed a stop in Lake Forest/Mission Viejo for two nights, separated by a few days, then back two more.  My usual selection of hotels were either booked solid or jacked-up prices.First stop at an Extended Stay. Convenient location, nice room, fine "grab-and-go" breakfast.  BUT horrific beds.  Never been in worst in many years.  We cancelled the second stay and went to a competitor where beds were excellent.More</t>
   </si>
   <si>
+    <t>OtherSideOfTheOcean</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r270054982-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1282,6 +1417,9 @@
     <t>It is a 2-star motel and that pretty much summarizes it. You need to have the right expectation for it and not to be fooled by the professional photos. Carpets are dirty in both the hallway and the room. There is a strange smell probably resulted from all the cooking. Towels are worn out and bathtub has stains cannot be cleaned. Free Wi-Fi is slow unless you pay extra for the "hi-speed enhanced". Complimentary breakfast is a joke. There's only packaged muffins, coffee and apples.Two positive things though: 1) Rate is cheap; 2) Front desk staff are helpful.If you are considering this place because it seems to be of great value, don't get your hope high.More</t>
   </si>
   <si>
+    <t>Kisuma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r270037424-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1297,6 +1435,9 @@
     <t>This place is disgusting! I have stayed at low budget hotels but this one takes the cake. I can't believe these people would offer rooms in the condition that they are. I kid you not, everywhere I turned my head I would see scuff marks, stains or something broken in the room. The minute I entered my room I smelled body odor and I wasn't jumping into the bed like I always do. I was disgusted smelling and looking at everything wrong in my room. I busted out of my phone to take video because I wanted to keep a record of everything wrong with this room. This is gross. Who ever runs this hotel should be ashamed. The furniture is all beat up, stained and worn down. Take some pride when it comes to the hospitality industry. I have never been so disgusted in my entire life. I thought because the hotel was located in Lake Forest that is would have some class, my mistake. I cannot recommend this hotel, please spend the extra $10 a night and stay somewhere that cares about your comfort.More</t>
   </si>
   <si>
+    <t>pablosocal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r266718140-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1324,6 +1465,9 @@
     <t>My unfortunate stay started when I arrived in my room, pulled back the bed spread and discovered someone else's hairs in the bed. After that joyous revelation I flew down to the front desk and asked for another room. What they gave me was not much better.The overwhelming stench of cigarette smoke was aweful. At my next trip to the front desk I was told that some of the rooms are reserved for smoking patrons. (Even though all of the rooms have a no smoking placard on the door)The halls are dank and dark, the stairway is gross with spilled stuff, and the elevator gives the evidence of never being maintained.Overall, not even an honorable mention.I can't believe a beautiful city like Lake Forest would have a place that would remind you of staying in a halfway house.More</t>
   </si>
   <si>
+    <t>teddy214</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r255874427-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1351,6 +1495,9 @@
     <t>Do not stay here!  There are other hotels in the area who charge only a bit more...remember you get what you pay for!  The room was dirty, old, smelly, nasty.  I got bitten by fleas, the bed was horrible (when you drive around the back of the hotel and see mattresses stacked out in the open, you can't help but wonder what critters have slept on them).  The hotel looks wonderful from the outside and is in a nice area, BUT don't let it fool you.  They give vouchers for people in need to stay at low cost (which unfortunately brings in undesirables).  It looked like a flop house.  We actually found drugs out by our car, there were what appeared to be hookers in the front lobby, when we drove around the side of the hotel, there were 2 women sitting on the stoop shooting up!  I would rather sleep in my car then stay here again.  There were people running up and down the halls all night long, it was miserable.  Spend the extra $15 a night and stay at the Courtyard on Portolla!  I would rate this hotel a zero if I could, but in all fairness, the staff is very polite and seems to try to do the best they can.  Five stars to the staff.More</t>
   </si>
   <si>
+    <t>deana w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r255126859-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1375,6 +1522,9 @@
     <t>Staff wonderful only suggestion accommodate the ones who have to make it their home by giving a low weekly rate times are tuff. Krystal and Carmen always handle everything with respect I have recommended this place to alot of peopleMore</t>
   </si>
   <si>
+    <t>jim542014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r253836252-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1399,6 +1549,9 @@
     <t>A value given the room rate. Showers and coffee were very good. Grab &amp; Go Breakfast was just average.Sleeping experience with beds was pretty bad. They need to upgrade their beds. Fan in Bathroom was extremely noisy.All in all a mixed bag.More</t>
   </si>
   <si>
+    <t>Brujilla97</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r243700318-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1471,6 +1624,9 @@
     <t>Jay Kholoma provides an excellent management services to the hotel client by understanding and attending to their needs. Jay responds to client requests in the most professional fashion way that make the client feels at home. Thanks JayMore</t>
   </si>
   <si>
+    <t>Lance R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r237189810-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1498,6 +1654,9 @@
     <t>I keep coming back to this extended stay because of the friendly and professional staff. Mario, David, Crystal, and Denise (sorry if I'm forgetting someone) have been so helpful and professional that I wouldn't think of staying anywhere else. Thank you all for your courtesy and professionalism. Highly recommended. Also the rooms are clean and large which is always nice when traveling.More</t>
   </si>
   <si>
+    <t>David K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r223920540-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1552,6 +1711,9 @@
     <t>Jay Kholoma was an excellent and professional person in managing the hotel and handling customers request. He was able to make my stay very pleasant, and for sure I will consider the same hotel for my next stay.Thanks JayDemetry, MiladMore</t>
   </si>
   <si>
+    <t>Jonathan L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r180329254-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1579,6 +1741,9 @@
     <t>The room was disgusting.  It was dark and depressing inside the hallways, and smelled awful from the elevator through the hallways and in the room.  The room was beyond dirty.  I question whether they cleaned beyond just making the bed.  The staff was very friendly and helpful, though.More</t>
   </si>
   <si>
+    <t>Anna B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r178762187-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1600,6 +1765,9 @@
     <t>If not for the staff, I would have checked out after the first night.  The room looked nothing like the internet site layout.  It was mostly clean but the shower had moldy places and a warped floor.  The bed was AWFUL - loud and hard and crappy sheets/comforter.  The pillows weren't bad.The staff was friendly and happy.  The grab n go breakfast worked as advertised (granola bars, fruit, pre-packaged muffins, coffee).The laundry room looked clean and bright but I didn't use it.My parent's stayed at an Extended Stay in Irvine earlier this year and had the same complaint about the beds - so I should have listed to them...Never again will I stay here....but the staff causes me to give out the second star.More</t>
   </si>
   <si>
+    <t>Frank-Money</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r175567966-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1627,6 +1795,9 @@
     <t>I basically liked everything about this hotel, except the location. I have no idea why anybody would build a hotel this far from civilization. Maybe because of cheap land? I don't know. What I do know is it is not near anything of use and is far from the freeway.More</t>
   </si>
   <si>
+    <t>JanetP777</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r165129981-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1648,6 +1819,9 @@
     <t>If you're looking for a super clean, quiet, comfortable hotel with excellent management &amp; staff, and all the comforts of home (refrigerator, microwave, cable tv, free internet, etc.) you'll be very happy here!  And dogs are welcome!!  Starting from my initial call to book a room (Lupe the manager answered) to the front desk staff &amp; especially the gentleman who works the night shift (everyone was helpful &amp; friendly)!  Clean, quiet &amp; comfortable - good price &amp; conveniently located! You sense that customer service is a top priority!  I feel super fortunate to have found the Extended Stay America in Lake Forest!  It's a gem of a place!  Thank you! Thank you!  Thank you!More</t>
   </si>
   <si>
+    <t>edviser</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r160742429-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1663,6 +1837,9 @@
     <t>I stay here at least once a month for a few days at a time;  staff at the front is always friendly and helpful with my needs.  this is teh best of teh 3 ESA's i have stayed at 2 in the same city...this one is best.  out of the way slightly, but quiet. Great oatmeal for Bfast, but there is a great coffee place on the corner!</t>
   </si>
   <si>
+    <t>CaligirlinTahoe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r158414665-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1687,6 +1864,9 @@
     <t>Bleached everything in the place. Handles, shower, shower handles. ALL the silverware and glass ware. Countertops REMOTE CONTROL. Luckily they wash with bleach when washing the sheets. Smelled icky before I cleaned. Stayed and dealt with it because it has modern features and close to parking. I have difficulty walking and I have a dog and they accept dogs.More</t>
   </si>
   <si>
+    <t>elodTlv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r157121463-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1714,6 +1894,9 @@
     <t>I got this room on a deal with Hotewire.com, so the price was quite a bargain.I only had to spend a night on my way from LA to Laguna beach, so I'm not sure on whether this location would fit with anyone else's needs, but it did the job well for me.I liked the spacious room and the good WiFi signal in the room.Breakfast is very basic (coffee, fruit, snack and oatmil)More</t>
   </si>
   <si>
+    <t>SabrinaRealtor4you</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r155933582-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1741,6 +1924,9 @@
     <t>I have been here at the Extended Stay, Lake Forest now for a few months while looking for a home to buy. This hotel has the best front desk staff. Everyone is friendly, welcoming and courteous. The rooms are clean and the hotel is quiet, I have never had a problem here. The parking lot is well lit so I feel safe coming in at night and I never worry about my car being vandalized. There is fresh coffee in the mornings down stairs in the lobby....and it's actually very good along with muffins &amp; fruit. Restaurants/shopping are close by about a mile or two.  I would recommend this hotel to any of my friends/clients. Extended Stay (Lake Forest) is much better than any of the other Extended Stay in Orange county because I have stayed at the others hotels.....Sabrina ArmstrongMore</t>
   </si>
   <si>
+    <t>Sheryl P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r154999542-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1768,6 +1954,9 @@
     <t>All I needed was a quiet and clean place to work and rest, preferably out of the hubbub of tourists or vacationers.  This place was perfect.  Located in an industrial/office community, there is no shopping (and no restaurants) nearby, so you'll have to drive a few miles to find food.  But better yet, bring in some groceries.  The little kitchenette is perfect for preparing light meals.  Desk space was adequate; wi fi was fast.  The room, lobby and surrounding neighborhood were very clean and quiet and felt safe.  Everything seemed pristine and new.  Bed and pillows were awesome--best night of sleep I've had in a long time.  It was a great little retreat for me.  I wish I could have stayed longer.More</t>
   </si>
   <si>
+    <t>Jessica H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r151343860-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1795,6 +1984,9 @@
     <t>My experience at this hotel was great, the staff is very friendly and accommodating. This is a great place to stay and would definitely recommend it to other people. It's clean and the room are very cozy.More</t>
   </si>
   <si>
+    <t>Sallybongo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r148321060-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1804,9 +1996,6 @@
     <t>12/29/2012</t>
   </si>
   <si>
-    <t>Sallybongo</t>
-  </si>
-  <si>
     <t>First Extended Stay we ever stayed in and in the future, we will seek out this chain.  Excellent service, beyond excellent room and amenities.  Staff went beyond our expectations when I discovered I left my medicine in the room after check-out. Highly recommend this hotel chain to everyone I know.MoreShow less</t>
   </si>
   <si>
@@ -1822,6 +2011,9 @@
     <t>First Extended Stay we ever stayed in and in the future, we will seek out this chain.  Excellent service, beyond excellent room and amenities.  Staff went beyond our expectations when I discovered I left my medicine in the room after check-out. Highly recommend this hotel chain to everyone I know.More</t>
   </si>
   <si>
+    <t>Sauljp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r146723383-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1844,6 +2036,9 @@
   </si>
   <si>
     <t>I was pleased with the service I received at check in, but also the way the rooms at setup, for people like me that always travel with my wife and almost 3 years old child is very important to have a little kitchen and a refrigerator in the room, not to mention that the kitchen is equiped ready to be used if needed. Great ideaMore</t>
+  </si>
+  <si>
+    <t>Lorenzo57</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r138217931-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
@@ -1879,6 +2074,9 @@
 OK, after we grabbed dinner it was late, so we got in bed. After a few minutes I feel itchy. At first I think bed bugs...pull back the sheets and see black spots, lint and hair...thank goodness...I recently booked this place based on other reviews, location and knowing of renovations. Initial impression was fine. Area is pretty quiet, desk attendant was polite etc. After 10 hours on the road, my son and I headed up the stairs to our room after a minor check-in wait... I immediately noticed strong odors in the stairwells which are apparently unventilated. Upon entering the room it was very smelly and hot. I put some items on the counter and they stuck to it. I checked and the counter was about 1/3 sticky. Everything else looked OK, so I took a wash towel and wiped it down. Looked for dish soap as these places have small kitchen areas, but there wasn't any. Since I had to go by the desk so I mentioned this situation and lack of soap and they told me they don't include kitchen soap. They also didn't offer to have someone clean it. They just apologized.After returning to room, I found in the bathroom, which appeared reasonably clean, one bar of soap and enough toilet paper to blow your nose. Back to the desk, they did offer the TP, and said I should have gotten more soap and shampoo...fine.OK, after we grabbed dinner it was late, so we got in bed. After a few minutes I feel itchy. At first I think bed bugs...pull back the sheets and see black spots, lint and hair...thank goodness it appears to just be dirt, lint, sand, but they are clearly soiled and not new. We looked at the other bed my son was in and it too was soiled and had debris in is. The sheets looked wrinkled and slept in. The desk offered fresh sheets and an apology, but didn't offer to have them changed.Following morning I asked to talk to the manager. These places seem to just be short staffed with minimal attendants. I was told the manager came in at 10:30, when I would be gone. He would call me, so I left my number. He never called. As I got coffee and sat in the tiny lobby area for about 25 minutes, all I heard was the load conversations in spanish of the housekeeper and another hotel employee hanging out in the hall. These two apparently had no work to do and the housekeeper was coughing and hacking really loudly every 30 seconds...sounded really sick. They had no concern at all any guests were being annoyed and just appeared to be taking one long break.Two days later, I got an automated email to review my stay from Extended Stay. They hoped I "was delighted" with my recent stay...I specified all the problems in detail and that I wouldn't be at all likely to stay or recommend this place (or any ES for that matter). This has been over a week now and I haven't heard anything back from anyone. I definitely would steer clear, at least from this location.More</t>
   </si>
   <si>
+    <t>Cookies1970</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r137625566-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1903,6 +2101,9 @@
     <t>I stayed there this weekend anch checked out early. The beds are uncomfortable,there was no hot water. The room itself was outdated and there was a lot of noise from the nursery sprinklers behind the hotel. A very poorly managed hotel. More</t>
   </si>
   <si>
+    <t>chainleank</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r136240058-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1927,6 +2128,9 @@
     <t>20% of my time is spent on the road, usually for business for over the last 25 years and I have extensively traveled domestically and abroad, typically in 3rd world countries.  I have very low expectations, accordingly. This property was absolutely the dirtiest, unkept, facility - anywhere.  I felt compelled to sleep with one eye open, not being comfortable in the room I had and was sure I'd leave with bedbug bites.  The floor clearly had not been vacuumed before I got there and the bed was crumpled enough that I had to wonder if they had any maid service at all - even between guests.  The a/c unit creaked like a frog when on.  An early tip off of the experience I was going to have should have been the mound of trash around the refuse bin at the lobby entrance from the parking lot.  Looking ahead, I'll stick with my usual host hotel, even if I have to pay a few bucks more or drive a bit further to my appointments.More</t>
   </si>
   <si>
+    <t>Kristian D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r132406662-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1954,6 +2158,9 @@
     <t>The service was really nice at this hotel, and the price is hard to beat in that area.  Room was always clean, and the staff very helpful.  I stayed there for over 3 months, would certainly recommend it.More</t>
   </si>
   <si>
+    <t>Dellanno31</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r130977370-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1973,6 +2180,9 @@
   </si>
   <si>
     <t>The rooms at this hotel are functional, nothing more. The decor seems old and the colors are dark. There was one picture in our room. No suitcase stands and a closet with a curtain over it. We lived in the area for 20 years so we know that it has not been here that long. The halls smell musty as if the carpets were cleaned but not allowed to dry properly.The room itself is clean and the bed is comfortable. there is one small easy chair and two desk chairs. Other than that you sit on the beed. The TV has limited access.The kitchen appliances suit their intended purpose.The staff is cheerful but unhelpful. Asking for promised services will get you a friendly denial. It is close to many good restaurants and shopping centers. On the first two nights we were there we returned from dinner to find the police present. This place seems to miss the point. Most people that stay there are there for multiple days. The rooms should be cheerful not dreary and represent a welcome home base. They do not.  We come to SoCal about once a month for 3-5 days and we want someplace that is inviting. I can not recommend this place even at the reduced rate.More</t>
+  </si>
+  <si>
+    <t>carielynn</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78411-r129558940-Extended_Stay_America_Orange_County_Lake_Forest-Lake_Forest_California.html</t>
@@ -2495,43 +2705,47 @@
       <c r="A2" t="n">
         <v>35421</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>146748</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -2549,47 +2763,51 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>35421</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
@@ -2606,56 +2824,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>35421</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>146749</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2677,56 +2899,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>35421</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>146750</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -2748,56 +2974,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>35421</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>146751</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -2819,56 +3049,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>35421</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>146752</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>105</v>
+      </c>
+      <c r="O7" t="s">
         <v>95</v>
-      </c>
-      <c r="J7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>99</v>
-      </c>
-      <c r="O7" t="s">
-        <v>90</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2880,56 +3114,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>35421</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>80707</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -2945,56 +3183,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="X8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Y8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>35421</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>146753</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3006,56 +3248,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="X9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>35421</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>146754</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3077,56 +3323,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="X10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>35421</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>146755</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3138,56 +3388,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="X11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="Y11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>35421</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>146756</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="J12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3205,56 +3459,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="X12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="Y12" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>35421</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>146757</v>
+      </c>
+      <c r="C13" t="s">
+        <v>157</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="J13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="K13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O13" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -3276,56 +3534,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="X13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Y13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>35421</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>863</v>
+      </c>
+      <c r="C14" t="s">
+        <v>166</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="K14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -3343,56 +3605,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="X14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="Y14" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>35421</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>26073</v>
+      </c>
+      <c r="C15" t="s">
+        <v>176</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="J15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="K15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="O15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3404,56 +3670,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="X15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="Y15" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>35421</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>146758</v>
+      </c>
+      <c r="C16" t="s">
+        <v>186</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="J16" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="K16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="L16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="O16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3465,56 +3735,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="X16" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="Y16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>35421</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>146759</v>
+      </c>
+      <c r="C17" t="s">
+        <v>192</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="J17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="K17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="L17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3526,47 +3800,51 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="X17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="Y17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>35421</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>146760</v>
+      </c>
+      <c r="C18" t="s">
+        <v>201</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="J18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
@@ -3583,56 +3861,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="X18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="Y18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>35421</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>146761</v>
+      </c>
+      <c r="C19" t="s">
+        <v>210</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="J19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="K19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3654,56 +3936,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="X19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="Y19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>35421</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>146762</v>
+      </c>
+      <c r="C20" t="s">
+        <v>220</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="J20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="K20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="L20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3725,56 +4011,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="X20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="Y20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>35421</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>43227</v>
+      </c>
+      <c r="C21" t="s">
+        <v>230</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="J21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="K21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="L21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3790,56 +4080,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="X21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="Y21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>35421</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>146763</v>
+      </c>
+      <c r="C22" t="s">
+        <v>239</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="J22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="K22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="O22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -3861,56 +4155,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="X22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="Y22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>35421</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>146764</v>
+      </c>
+      <c r="C23" t="s">
+        <v>248</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="J23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="K23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="L23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="O23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3930,50 +4228,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>35421</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>146765</v>
+      </c>
+      <c r="C24" t="s">
+        <v>255</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="J24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="K24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="L24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="O24" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3989,56 +4291,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="X24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="Y24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>35421</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>146766</v>
+      </c>
+      <c r="C25" t="s">
+        <v>265</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="J25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="K25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="L25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="O25" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -4056,50 +4362,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>35421</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>321</v>
+      </c>
+      <c r="C26" t="s">
+        <v>271</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="J26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="K26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="L26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="O26" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -4117,50 +4427,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>35421</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>146767</v>
+      </c>
+      <c r="C27" t="s">
+        <v>278</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="J27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="K27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="L27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="O27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4172,56 +4486,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="X27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="Y27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>35421</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>146768</v>
+      </c>
+      <c r="C28" t="s">
+        <v>287</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="J28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="K28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="L28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="O28" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4235,50 +4553,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>35421</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>146769</v>
+      </c>
+      <c r="C29" t="s">
+        <v>295</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="J29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="K29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="L29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="O29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4290,56 +4612,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="X29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="Y29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>35421</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>146770</v>
+      </c>
+      <c r="C30" t="s">
+        <v>305</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="J30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="K30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="L30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="O30" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4351,56 +4677,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="X30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="Y30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>35421</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>146771</v>
+      </c>
+      <c r="C31" t="s">
+        <v>315</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="J31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="K31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="L31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="O31" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -4416,56 +4746,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="X31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="Y31" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>35421</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>146772</v>
+      </c>
+      <c r="C32" t="s">
+        <v>325</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="J32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="K32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="L32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="O32" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -4483,50 +4817,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>35421</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>146773</v>
+      </c>
+      <c r="C33" t="s">
+        <v>332</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="J33" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="K33" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="L33" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="O33" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4538,56 +4876,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="X33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="Y33" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>35421</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>146774</v>
+      </c>
+      <c r="C34" t="s">
+        <v>342</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="J34" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="K34" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="L34" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="O34" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4599,56 +4941,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="X34" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="Y34" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>35421</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>146775</v>
+      </c>
+      <c r="C35" t="s">
+        <v>348</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="J35" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="K35" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="L35" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="O35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4666,56 +5012,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="X35" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="Y35" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>35421</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>5091</v>
+      </c>
+      <c r="C36" t="s">
+        <v>358</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="J36" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="K36" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="L36" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="O36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -4733,56 +5083,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="X36" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="Y36" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>35421</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>146766</v>
+      </c>
+      <c r="C37" t="s">
+        <v>278</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="J37" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="K37" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="L37" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="O37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -4798,56 +5152,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="X37" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="Y37" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>35421</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>146776</v>
+      </c>
+      <c r="C38" t="s">
+        <v>374</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="J38" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="K38" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="L38" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="O38" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -4863,56 +5221,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="X38" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="Y38" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>35421</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>19716</v>
+      </c>
+      <c r="C39" t="s">
+        <v>384</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="J39" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="K39" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="L39" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -4930,56 +5292,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="X39" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="Y39" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>35421</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>146777</v>
+      </c>
+      <c r="C40" t="s">
+        <v>391</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="J40" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="K40" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="L40" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="O40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4995,56 +5361,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="X40" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="Y40" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>35421</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>146778</v>
+      </c>
+      <c r="C41" t="s">
+        <v>401</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="J41" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="K41" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="L41" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="O41" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5062,56 +5432,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="X41" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="Y41" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>35421</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>146779</v>
+      </c>
+      <c r="C42" t="s">
+        <v>411</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="J42" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="K42" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="L42" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -5127,56 +5501,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="X42" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="Y42" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>35421</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>146780</v>
+      </c>
+      <c r="C43" t="s">
+        <v>421</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="J43" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="K43" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="L43" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="O43" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -5194,56 +5572,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="X43" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="Y43" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>35421</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>146781</v>
+      </c>
+      <c r="C44" t="s">
+        <v>430</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="J44" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="K44" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="L44" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="O44" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5261,50 +5643,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>35421</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>146782</v>
+      </c>
+      <c r="C45" t="s">
+        <v>438</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="J45" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="K45" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="L45" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="O45" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5322,50 +5708,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>35421</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>15576</v>
+      </c>
+      <c r="C46" t="s">
+        <v>444</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="J46" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="K46" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="L46" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="O46" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -5381,56 +5771,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="X46" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="Y46" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>35421</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>146783</v>
+      </c>
+      <c r="C47" t="s">
+        <v>453</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="J47" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="K47" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="L47" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="O47" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5448,56 +5842,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="X47" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="Y47" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>35421</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>146784</v>
+      </c>
+      <c r="C48" t="s">
+        <v>463</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="J48" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="K48" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="L48" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="O48" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -5513,56 +5911,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="X48" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="Y48" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>35421</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>146785</v>
+      </c>
+      <c r="C49" t="s">
+        <v>469</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="J49" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="K49" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="L49" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5574,56 +5976,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="X49" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
       <c r="Y49" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>35421</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>146786</v>
+      </c>
+      <c r="C50" t="s">
+        <v>479</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="J50" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="K50" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="L50" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="O50" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5635,56 +6041,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="X50" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="Y50" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>35421</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>146787</v>
+      </c>
+      <c r="C51" t="s">
+        <v>489</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="J51" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="K51" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="L51" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="O51" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5696,56 +6106,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="X51" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="Y51" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>35421</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>146788</v>
+      </c>
+      <c r="C52" t="s">
+        <v>498</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J52" t="s">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="K52" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
       <c r="L52" t="s">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="O52" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5763,47 +6177,51 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>454</v>
+        <v>504</v>
       </c>
       <c r="X52" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="Y52" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>35421</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>146789</v>
+      </c>
+      <c r="C53" t="s">
+        <v>507</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="J53" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="K53" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
       <c r="L53" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
@@ -5830,56 +6248,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="X53" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="Y53" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>35421</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>146772</v>
+      </c>
+      <c r="C54" t="s">
+        <v>332</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="J54" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="K54" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="L54" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5891,56 +6313,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
       <c r="X54" t="s">
-        <v>472</v>
+        <v>523</v>
       </c>
       <c r="Y54" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>35421</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>146773</v>
+      </c>
+      <c r="C55" t="s">
+        <v>342</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
       <c r="J55" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="K55" t="s">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="L55" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>478</v>
+        <v>529</v>
       </c>
       <c r="O55" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5952,56 +6378,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>479</v>
+        <v>530</v>
       </c>
       <c r="X55" t="s">
-        <v>472</v>
+        <v>523</v>
       </c>
       <c r="Y55" t="s">
-        <v>480</v>
+        <v>531</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>35421</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>146790</v>
+      </c>
+      <c r="C56" t="s">
+        <v>532</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>481</v>
+        <v>533</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>482</v>
+        <v>534</v>
       </c>
       <c r="J56" t="s">
-        <v>483</v>
+        <v>535</v>
       </c>
       <c r="K56" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="L56" t="s">
-        <v>485</v>
+        <v>537</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>486</v>
+        <v>538</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6013,56 +6443,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>487</v>
+        <v>539</v>
       </c>
       <c r="X56" t="s">
-        <v>488</v>
+        <v>540</v>
       </c>
       <c r="Y56" t="s">
-        <v>489</v>
+        <v>541</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>35421</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>4349</v>
+      </c>
+      <c r="C57" t="s">
+        <v>542</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>490</v>
+        <v>543</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>491</v>
+        <v>544</v>
       </c>
       <c r="J57" t="s">
-        <v>492</v>
+        <v>545</v>
       </c>
       <c r="K57" t="s">
-        <v>493</v>
+        <v>546</v>
       </c>
       <c r="L57" t="s">
-        <v>494</v>
+        <v>547</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>495</v>
+        <v>548</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6074,56 +6508,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="X57" t="s">
-        <v>497</v>
+        <v>550</v>
       </c>
       <c r="Y57" t="s">
-        <v>498</v>
+        <v>551</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>35421</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>146773</v>
+      </c>
+      <c r="C58" t="s">
+        <v>342</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>499</v>
+        <v>552</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>500</v>
+        <v>553</v>
       </c>
       <c r="J58" t="s">
-        <v>501</v>
+        <v>554</v>
       </c>
       <c r="K58" t="s">
-        <v>502</v>
+        <v>555</v>
       </c>
       <c r="L58" t="s">
-        <v>503</v>
+        <v>556</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>504</v>
+        <v>557</v>
       </c>
       <c r="O58" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6135,56 +6573,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>505</v>
+        <v>558</v>
       </c>
       <c r="X58" t="s">
-        <v>506</v>
+        <v>559</v>
       </c>
       <c r="Y58" t="s">
-        <v>507</v>
+        <v>560</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>35421</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>34742</v>
+      </c>
+      <c r="C59" t="s">
+        <v>561</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>508</v>
+        <v>562</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>509</v>
+        <v>563</v>
       </c>
       <c r="J59" t="s">
-        <v>510</v>
+        <v>564</v>
       </c>
       <c r="K59" t="s">
-        <v>511</v>
+        <v>565</v>
       </c>
       <c r="L59" t="s">
-        <v>512</v>
+        <v>566</v>
       </c>
       <c r="M59" t="n">
         <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>513</v>
+        <v>567</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>2</v>
@@ -6206,56 +6648,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>514</v>
+        <v>568</v>
       </c>
       <c r="X59" t="s">
-        <v>515</v>
+        <v>569</v>
       </c>
       <c r="Y59" t="s">
-        <v>516</v>
+        <v>570</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>35421</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>4246</v>
+      </c>
+      <c r="C60" t="s">
+        <v>571</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>517</v>
+        <v>572</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>518</v>
+        <v>573</v>
       </c>
       <c r="J60" t="s">
-        <v>519</v>
+        <v>574</v>
       </c>
       <c r="K60" t="s">
-        <v>520</v>
+        <v>575</v>
       </c>
       <c r="L60" t="s">
-        <v>521</v>
+        <v>576</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>522</v>
+        <v>577</v>
       </c>
       <c r="O60" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P60" t="n">
         <v>2</v>
@@ -6279,50 +6725,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>523</v>
+        <v>578</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>35421</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>146791</v>
+      </c>
+      <c r="C61" t="s">
+        <v>579</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>524</v>
+        <v>580</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>525</v>
+        <v>581</v>
       </c>
       <c r="J61" t="s">
-        <v>526</v>
+        <v>582</v>
       </c>
       <c r="K61" t="s">
-        <v>527</v>
+        <v>583</v>
       </c>
       <c r="L61" t="s">
-        <v>528</v>
+        <v>584</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>529</v>
+        <v>585</v>
       </c>
       <c r="O61" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6344,56 +6794,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>530</v>
+        <v>586</v>
       </c>
       <c r="X61" t="s">
-        <v>531</v>
+        <v>587</v>
       </c>
       <c r="Y61" t="s">
-        <v>532</v>
+        <v>588</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>35421</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>146792</v>
+      </c>
+      <c r="C62" t="s">
+        <v>589</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>533</v>
+        <v>590</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>534</v>
+        <v>591</v>
       </c>
       <c r="J62" t="s">
-        <v>535</v>
+        <v>592</v>
       </c>
       <c r="K62" t="s">
-        <v>536</v>
+        <v>593</v>
       </c>
       <c r="L62" t="s">
-        <v>537</v>
+        <v>594</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>538</v>
+        <v>595</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6417,50 +6871,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>539</v>
+        <v>596</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>35421</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>146793</v>
+      </c>
+      <c r="C63" t="s">
+        <v>597</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>541</v>
+        <v>599</v>
       </c>
       <c r="J63" t="s">
-        <v>542</v>
+        <v>600</v>
       </c>
       <c r="K63" t="s">
-        <v>543</v>
+        <v>601</v>
       </c>
       <c r="L63" t="s">
-        <v>544</v>
+        <v>602</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>538</v>
+        <v>595</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6484,41 +6942,45 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>544</v>
+        <v>602</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>35421</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>146794</v>
+      </c>
+      <c r="C64" t="s">
+        <v>603</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>545</v>
+        <v>604</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>546</v>
+        <v>605</v>
       </c>
       <c r="J64" t="s">
-        <v>547</v>
+        <v>606</v>
       </c>
       <c r="K64" t="s">
-        <v>548</v>
+        <v>607</v>
       </c>
       <c r="L64" t="s">
-        <v>549</v>
+        <v>608</v>
       </c>
       <c r="M64" t="n">
         <v>2</v>
@@ -6545,56 +7007,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>550</v>
+        <v>609</v>
       </c>
       <c r="X64" t="s">
-        <v>551</v>
+        <v>610</v>
       </c>
       <c r="Y64" t="s">
-        <v>552</v>
+        <v>611</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>35421</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>146795</v>
+      </c>
+      <c r="C65" t="s">
+        <v>612</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>553</v>
+        <v>613</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>554</v>
+        <v>614</v>
       </c>
       <c r="J65" t="s">
-        <v>555</v>
+        <v>615</v>
       </c>
       <c r="K65" t="s">
-        <v>556</v>
+        <v>616</v>
       </c>
       <c r="L65" t="s">
-        <v>557</v>
+        <v>617</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>558</v>
+        <v>618</v>
       </c>
       <c r="O65" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6614,56 +7080,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>559</v>
+        <v>619</v>
       </c>
       <c r="X65" t="s">
-        <v>560</v>
+        <v>620</v>
       </c>
       <c r="Y65" t="s">
-        <v>561</v>
+        <v>621</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>35421</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>146796</v>
+      </c>
+      <c r="C66" t="s">
+        <v>622</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>562</v>
+        <v>623</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>563</v>
+        <v>624</v>
       </c>
       <c r="J66" t="s">
-        <v>564</v>
+        <v>625</v>
       </c>
       <c r="K66" t="s">
-        <v>565</v>
+        <v>626</v>
       </c>
       <c r="L66" t="s">
-        <v>566</v>
+        <v>627</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>567</v>
+        <v>628</v>
       </c>
       <c r="O66" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6685,56 +7155,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>568</v>
+        <v>629</v>
       </c>
       <c r="X66" t="s">
-        <v>569</v>
+        <v>630</v>
       </c>
       <c r="Y66" t="s">
-        <v>570</v>
+        <v>631</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>35421</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>124902</v>
+      </c>
+      <c r="C67" t="s">
+        <v>632</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>571</v>
+        <v>633</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>572</v>
+        <v>634</v>
       </c>
       <c r="J67" t="s">
-        <v>573</v>
+        <v>635</v>
       </c>
       <c r="K67" t="s">
-        <v>574</v>
+        <v>636</v>
       </c>
       <c r="L67" t="s">
-        <v>575</v>
+        <v>637</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>576</v>
+        <v>638</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6756,56 +7230,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>577</v>
+        <v>639</v>
       </c>
       <c r="X67" t="s">
-        <v>578</v>
+        <v>640</v>
       </c>
       <c r="Y67" t="s">
-        <v>579</v>
+        <v>641</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>35421</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>4146</v>
+      </c>
+      <c r="C68" t="s">
+        <v>642</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>580</v>
+        <v>643</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>581</v>
+        <v>644</v>
       </c>
       <c r="J68" t="s">
-        <v>582</v>
+        <v>645</v>
       </c>
       <c r="K68" t="s">
-        <v>583</v>
+        <v>646</v>
       </c>
       <c r="L68" t="s">
-        <v>584</v>
+        <v>647</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>585</v>
+        <v>648</v>
       </c>
       <c r="O68" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6827,56 +7305,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>586</v>
+        <v>649</v>
       </c>
       <c r="X68" t="s">
-        <v>587</v>
+        <v>650</v>
       </c>
       <c r="Y68" t="s">
-        <v>588</v>
+        <v>651</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>35421</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>146797</v>
+      </c>
+      <c r="C69" t="s">
+        <v>652</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>589</v>
+        <v>653</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>590</v>
+        <v>654</v>
       </c>
       <c r="J69" t="s">
-        <v>591</v>
+        <v>655</v>
       </c>
       <c r="K69" t="s">
-        <v>592</v>
+        <v>652</v>
       </c>
       <c r="L69" t="s">
-        <v>593</v>
+        <v>656</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>594</v>
+        <v>657</v>
       </c>
       <c r="O69" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6898,56 +7380,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>595</v>
+        <v>658</v>
       </c>
       <c r="X69" t="s">
-        <v>596</v>
+        <v>659</v>
       </c>
       <c r="Y69" t="s">
-        <v>597</v>
+        <v>660</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>35421</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>146798</v>
+      </c>
+      <c r="C70" t="s">
+        <v>661</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>598</v>
+        <v>662</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>599</v>
+        <v>663</v>
       </c>
       <c r="J70" t="s">
-        <v>600</v>
+        <v>664</v>
       </c>
       <c r="K70" t="s">
-        <v>601</v>
+        <v>665</v>
       </c>
       <c r="L70" t="s">
-        <v>602</v>
+        <v>666</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>594</v>
+        <v>657</v>
       </c>
       <c r="O70" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6969,56 +7455,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>603</v>
+        <v>667</v>
       </c>
       <c r="X70" t="s">
-        <v>604</v>
+        <v>668</v>
       </c>
       <c r="Y70" t="s">
-        <v>605</v>
+        <v>669</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>35421</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>146799</v>
+      </c>
+      <c r="C71" t="s">
+        <v>670</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>606</v>
+        <v>671</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>607</v>
+        <v>672</v>
       </c>
       <c r="J71" t="s">
-        <v>608</v>
+        <v>673</v>
       </c>
       <c r="K71" t="s">
-        <v>609</v>
+        <v>674</v>
       </c>
       <c r="L71" t="s">
-        <v>610</v>
+        <v>675</v>
       </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
       <c r="N71" t="s">
-        <v>611</v>
+        <v>676</v>
       </c>
       <c r="O71" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P71" t="n">
         <v>2</v>
@@ -7040,47 +7530,51 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>612</v>
+        <v>677</v>
       </c>
       <c r="X71" t="s">
-        <v>613</v>
+        <v>678</v>
       </c>
       <c r="Y71" t="s">
-        <v>614</v>
+        <v>679</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>35421</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>146800</v>
+      </c>
+      <c r="C72" t="s">
+        <v>680</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>615</v>
+        <v>681</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>616</v>
+        <v>682</v>
       </c>
       <c r="J72" t="s">
-        <v>617</v>
+        <v>683</v>
       </c>
       <c r="K72" t="s">
-        <v>618</v>
+        <v>684</v>
       </c>
       <c r="L72" t="s">
-        <v>619</v>
+        <v>685</v>
       </c>
       <c r="M72" t="n">
         <v>2</v>
@@ -7107,56 +7601,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>620</v>
+        <v>686</v>
       </c>
       <c r="X72" t="s">
-        <v>621</v>
+        <v>687</v>
       </c>
       <c r="Y72" t="s">
-        <v>622</v>
+        <v>688</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>35421</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>146801</v>
+      </c>
+      <c r="C73" t="s">
+        <v>689</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>623</v>
+        <v>690</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>624</v>
+        <v>691</v>
       </c>
       <c r="J73" t="s">
-        <v>625</v>
+        <v>692</v>
       </c>
       <c r="K73" t="s">
-        <v>626</v>
+        <v>693</v>
       </c>
       <c r="L73" t="s">
-        <v>627</v>
+        <v>694</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>611</v>
+        <v>676</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>2</v>
@@ -7178,56 +7676,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>628</v>
+        <v>695</v>
       </c>
       <c r="X73" t="s">
-        <v>629</v>
+        <v>696</v>
       </c>
       <c r="Y73" t="s">
-        <v>630</v>
+        <v>697</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>35421</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>146802</v>
+      </c>
+      <c r="C74" t="s">
+        <v>698</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>631</v>
+        <v>699</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>632</v>
+        <v>700</v>
       </c>
       <c r="J74" t="s">
-        <v>633</v>
+        <v>701</v>
       </c>
       <c r="K74" t="s">
-        <v>634</v>
+        <v>702</v>
       </c>
       <c r="L74" t="s">
-        <v>635</v>
+        <v>703</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>636</v>
+        <v>704</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -7249,56 +7751,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>637</v>
+        <v>705</v>
       </c>
       <c r="X74" t="s">
-        <v>638</v>
+        <v>706</v>
       </c>
       <c r="Y74" t="s">
-        <v>639</v>
+        <v>707</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>35421</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>146803</v>
+      </c>
+      <c r="C75" t="s">
+        <v>708</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>640</v>
+        <v>709</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>641</v>
+        <v>710</v>
       </c>
       <c r="J75" t="s">
-        <v>642</v>
+        <v>711</v>
       </c>
       <c r="K75" t="s">
-        <v>643</v>
+        <v>712</v>
       </c>
       <c r="L75" t="s">
-        <v>644</v>
+        <v>713</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>645</v>
+        <v>714</v>
       </c>
       <c r="O75" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -7320,56 +7826,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>637</v>
+        <v>705</v>
       </c>
       <c r="X75" t="s">
-        <v>638</v>
+        <v>706</v>
       </c>
       <c r="Y75" t="s">
-        <v>646</v>
+        <v>715</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>35421</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>146804</v>
+      </c>
+      <c r="C76" t="s">
+        <v>716</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>647</v>
+        <v>717</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>648</v>
+        <v>718</v>
       </c>
       <c r="J76" t="s">
-        <v>649</v>
+        <v>719</v>
       </c>
       <c r="K76" t="s">
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="L76" t="s">
-        <v>651</v>
+        <v>721</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>645</v>
+        <v>714</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7391,13 +7901,13 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>637</v>
+        <v>705</v>
       </c>
       <c r="X76" t="s">
-        <v>638</v>
+        <v>706</v>
       </c>
       <c r="Y76" t="s">
-        <v>652</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_276.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_276.xlsx
@@ -2706,7 +2706,7 @@
         <v>35421</v>
       </c>
       <c r="B2" t="n">
-        <v>146748</v>
+        <v>178100</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2838,7 +2838,7 @@
         <v>35421</v>
       </c>
       <c r="B4" t="n">
-        <v>146749</v>
+        <v>178101</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -2913,7 +2913,7 @@
         <v>35421</v>
       </c>
       <c r="B5" t="n">
-        <v>146750</v>
+        <v>178102</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
@@ -2988,7 +2988,7 @@
         <v>35421</v>
       </c>
       <c r="B6" t="n">
-        <v>146751</v>
+        <v>178103</v>
       </c>
       <c r="C6" t="s">
         <v>89</v>
@@ -3063,7 +3063,7 @@
         <v>35421</v>
       </c>
       <c r="B7" t="n">
-        <v>146752</v>
+        <v>178104</v>
       </c>
       <c r="C7" t="s">
         <v>99</v>
@@ -3197,7 +3197,7 @@
         <v>35421</v>
       </c>
       <c r="B9" t="n">
-        <v>146753</v>
+        <v>178105</v>
       </c>
       <c r="C9" t="s">
         <v>119</v>
@@ -3262,7 +3262,7 @@
         <v>35421</v>
       </c>
       <c r="B10" t="n">
-        <v>146754</v>
+        <v>178106</v>
       </c>
       <c r="C10" t="s">
         <v>129</v>
@@ -3337,7 +3337,7 @@
         <v>35421</v>
       </c>
       <c r="B11" t="n">
-        <v>146755</v>
+        <v>178107</v>
       </c>
       <c r="C11" t="s">
         <v>138</v>
@@ -3402,7 +3402,7 @@
         <v>35421</v>
       </c>
       <c r="B12" t="n">
-        <v>146756</v>
+        <v>178108</v>
       </c>
       <c r="C12" t="s">
         <v>147</v>
@@ -3473,7 +3473,7 @@
         <v>35421</v>
       </c>
       <c r="B13" t="n">
-        <v>146757</v>
+        <v>178109</v>
       </c>
       <c r="C13" t="s">
         <v>157</v>
@@ -3684,7 +3684,7 @@
         <v>35421</v>
       </c>
       <c r="B16" t="n">
-        <v>146758</v>
+        <v>178110</v>
       </c>
       <c r="C16" t="s">
         <v>186</v>
@@ -3749,7 +3749,7 @@
         <v>35421</v>
       </c>
       <c r="B17" t="n">
-        <v>146759</v>
+        <v>178111</v>
       </c>
       <c r="C17" t="s">
         <v>192</v>
@@ -3814,7 +3814,7 @@
         <v>35421</v>
       </c>
       <c r="B18" t="n">
-        <v>146760</v>
+        <v>178112</v>
       </c>
       <c r="C18" t="s">
         <v>201</v>
@@ -3875,7 +3875,7 @@
         <v>35421</v>
       </c>
       <c r="B19" t="n">
-        <v>146761</v>
+        <v>178113</v>
       </c>
       <c r="C19" t="s">
         <v>210</v>
@@ -3950,7 +3950,7 @@
         <v>35421</v>
       </c>
       <c r="B20" t="n">
-        <v>146762</v>
+        <v>178114</v>
       </c>
       <c r="C20" t="s">
         <v>220</v>
@@ -4094,7 +4094,7 @@
         <v>35421</v>
       </c>
       <c r="B22" t="n">
-        <v>146763</v>
+        <v>178115</v>
       </c>
       <c r="C22" t="s">
         <v>239</v>
@@ -4169,7 +4169,7 @@
         <v>35421</v>
       </c>
       <c r="B23" t="n">
-        <v>146764</v>
+        <v>178116</v>
       </c>
       <c r="C23" t="s">
         <v>248</v>
@@ -4236,7 +4236,7 @@
         <v>35421</v>
       </c>
       <c r="B24" t="n">
-        <v>146765</v>
+        <v>178117</v>
       </c>
       <c r="C24" t="s">
         <v>255</v>
@@ -4305,7 +4305,7 @@
         <v>35421</v>
       </c>
       <c r="B25" t="n">
-        <v>146766</v>
+        <v>178118</v>
       </c>
       <c r="C25" t="s">
         <v>265</v>
@@ -4435,7 +4435,7 @@
         <v>35421</v>
       </c>
       <c r="B27" t="n">
-        <v>146767</v>
+        <v>146754</v>
       </c>
       <c r="C27" t="s">
         <v>278</v>
@@ -4500,7 +4500,7 @@
         <v>35421</v>
       </c>
       <c r="B28" t="n">
-        <v>146768</v>
+        <v>178119</v>
       </c>
       <c r="C28" t="s">
         <v>287</v>
@@ -4561,7 +4561,7 @@
         <v>35421</v>
       </c>
       <c r="B29" t="n">
-        <v>146769</v>
+        <v>178120</v>
       </c>
       <c r="C29" t="s">
         <v>295</v>
@@ -4626,7 +4626,7 @@
         <v>35421</v>
       </c>
       <c r="B30" t="n">
-        <v>146770</v>
+        <v>178121</v>
       </c>
       <c r="C30" t="s">
         <v>305</v>
@@ -4691,7 +4691,7 @@
         <v>35421</v>
       </c>
       <c r="B31" t="n">
-        <v>146771</v>
+        <v>178122</v>
       </c>
       <c r="C31" t="s">
         <v>315</v>
@@ -4760,7 +4760,7 @@
         <v>35421</v>
       </c>
       <c r="B32" t="n">
-        <v>146772</v>
+        <v>178123</v>
       </c>
       <c r="C32" t="s">
         <v>325</v>
@@ -4825,7 +4825,7 @@
         <v>35421</v>
       </c>
       <c r="B33" t="n">
-        <v>146773</v>
+        <v>146757</v>
       </c>
       <c r="C33" t="s">
         <v>332</v>
@@ -4890,7 +4890,7 @@
         <v>35421</v>
       </c>
       <c r="B34" t="n">
-        <v>146774</v>
+        <v>146758</v>
       </c>
       <c r="C34" t="s">
         <v>342</v>
@@ -4955,7 +4955,7 @@
         <v>35421</v>
       </c>
       <c r="B35" t="n">
-        <v>146775</v>
+        <v>178124</v>
       </c>
       <c r="C35" t="s">
         <v>348</v>
@@ -5097,7 +5097,7 @@
         <v>35421</v>
       </c>
       <c r="B37" t="n">
-        <v>146766</v>
+        <v>146754</v>
       </c>
       <c r="C37" t="s">
         <v>278</v>
@@ -5166,7 +5166,7 @@
         <v>35421</v>
       </c>
       <c r="B38" t="n">
-        <v>146776</v>
+        <v>178125</v>
       </c>
       <c r="C38" t="s">
         <v>374</v>
@@ -5306,7 +5306,7 @@
         <v>35421</v>
       </c>
       <c r="B40" t="n">
-        <v>146777</v>
+        <v>178126</v>
       </c>
       <c r="C40" t="s">
         <v>391</v>
@@ -5375,7 +5375,7 @@
         <v>35421</v>
       </c>
       <c r="B41" t="n">
-        <v>146778</v>
+        <v>178127</v>
       </c>
       <c r="C41" t="s">
         <v>401</v>
@@ -5446,7 +5446,7 @@
         <v>35421</v>
       </c>
       <c r="B42" t="n">
-        <v>146779</v>
+        <v>178128</v>
       </c>
       <c r="C42" t="s">
         <v>411</v>
@@ -5515,7 +5515,7 @@
         <v>35421</v>
       </c>
       <c r="B43" t="n">
-        <v>146780</v>
+        <v>178129</v>
       </c>
       <c r="C43" t="s">
         <v>421</v>
@@ -5586,7 +5586,7 @@
         <v>35421</v>
       </c>
       <c r="B44" t="n">
-        <v>146781</v>
+        <v>178130</v>
       </c>
       <c r="C44" t="s">
         <v>430</v>
@@ -5651,7 +5651,7 @@
         <v>35421</v>
       </c>
       <c r="B45" t="n">
-        <v>146782</v>
+        <v>178131</v>
       </c>
       <c r="C45" t="s">
         <v>438</v>
@@ -5785,7 +5785,7 @@
         <v>35421</v>
       </c>
       <c r="B47" t="n">
-        <v>146783</v>
+        <v>178132</v>
       </c>
       <c r="C47" t="s">
         <v>453</v>
@@ -5856,7 +5856,7 @@
         <v>35421</v>
       </c>
       <c r="B48" t="n">
-        <v>146784</v>
+        <v>178133</v>
       </c>
       <c r="C48" t="s">
         <v>463</v>
@@ -5925,7 +5925,7 @@
         <v>35421</v>
       </c>
       <c r="B49" t="n">
-        <v>146785</v>
+        <v>178134</v>
       </c>
       <c r="C49" t="s">
         <v>469</v>
@@ -5990,7 +5990,7 @@
         <v>35421</v>
       </c>
       <c r="B50" t="n">
-        <v>146786</v>
+        <v>178135</v>
       </c>
       <c r="C50" t="s">
         <v>479</v>
@@ -6055,7 +6055,7 @@
         <v>35421</v>
       </c>
       <c r="B51" t="n">
-        <v>146787</v>
+        <v>178136</v>
       </c>
       <c r="C51" t="s">
         <v>489</v>
@@ -6120,7 +6120,7 @@
         <v>35421</v>
       </c>
       <c r="B52" t="n">
-        <v>146788</v>
+        <v>178137</v>
       </c>
       <c r="C52" t="s">
         <v>498</v>
@@ -6191,7 +6191,7 @@
         <v>35421</v>
       </c>
       <c r="B53" t="n">
-        <v>146789</v>
+        <v>178138</v>
       </c>
       <c r="C53" t="s">
         <v>507</v>
@@ -6262,7 +6262,7 @@
         <v>35421</v>
       </c>
       <c r="B54" t="n">
-        <v>146772</v>
+        <v>146757</v>
       </c>
       <c r="C54" t="s">
         <v>332</v>
@@ -6327,7 +6327,7 @@
         <v>35421</v>
       </c>
       <c r="B55" t="n">
-        <v>146773</v>
+        <v>146758</v>
       </c>
       <c r="C55" t="s">
         <v>342</v>
@@ -6392,7 +6392,7 @@
         <v>35421</v>
       </c>
       <c r="B56" t="n">
-        <v>146790</v>
+        <v>178139</v>
       </c>
       <c r="C56" t="s">
         <v>532</v>
@@ -6522,7 +6522,7 @@
         <v>35421</v>
       </c>
       <c r="B58" t="n">
-        <v>146773</v>
+        <v>146758</v>
       </c>
       <c r="C58" t="s">
         <v>342</v>
@@ -6733,7 +6733,7 @@
         <v>35421</v>
       </c>
       <c r="B61" t="n">
-        <v>146791</v>
+        <v>178140</v>
       </c>
       <c r="C61" t="s">
         <v>579</v>
@@ -6808,7 +6808,7 @@
         <v>35421</v>
       </c>
       <c r="B62" t="n">
-        <v>146792</v>
+        <v>178141</v>
       </c>
       <c r="C62" t="s">
         <v>589</v>
@@ -6879,7 +6879,7 @@
         <v>35421</v>
       </c>
       <c r="B63" t="n">
-        <v>146793</v>
+        <v>178142</v>
       </c>
       <c r="C63" t="s">
         <v>597</v>
@@ -6950,7 +6950,7 @@
         <v>35421</v>
       </c>
       <c r="B64" t="n">
-        <v>146794</v>
+        <v>178143</v>
       </c>
       <c r="C64" t="s">
         <v>603</v>
@@ -7021,7 +7021,7 @@
         <v>35421</v>
       </c>
       <c r="B65" t="n">
-        <v>146795</v>
+        <v>178144</v>
       </c>
       <c r="C65" t="s">
         <v>612</v>
@@ -7094,7 +7094,7 @@
         <v>35421</v>
       </c>
       <c r="B66" t="n">
-        <v>146796</v>
+        <v>178145</v>
       </c>
       <c r="C66" t="s">
         <v>622</v>
@@ -7319,7 +7319,7 @@
         <v>35421</v>
       </c>
       <c r="B69" t="n">
-        <v>146797</v>
+        <v>178146</v>
       </c>
       <c r="C69" t="s">
         <v>652</v>
@@ -7394,7 +7394,7 @@
         <v>35421</v>
       </c>
       <c r="B70" t="n">
-        <v>146798</v>
+        <v>178147</v>
       </c>
       <c r="C70" t="s">
         <v>661</v>
@@ -7469,7 +7469,7 @@
         <v>35421</v>
       </c>
       <c r="B71" t="n">
-        <v>146799</v>
+        <v>178148</v>
       </c>
       <c r="C71" t="s">
         <v>670</v>
@@ -7544,7 +7544,7 @@
         <v>35421</v>
       </c>
       <c r="B72" t="n">
-        <v>146800</v>
+        <v>178149</v>
       </c>
       <c r="C72" t="s">
         <v>680</v>
@@ -7615,7 +7615,7 @@
         <v>35421</v>
       </c>
       <c r="B73" t="n">
-        <v>146801</v>
+        <v>178150</v>
       </c>
       <c r="C73" t="s">
         <v>689</v>
@@ -7690,7 +7690,7 @@
         <v>35421</v>
       </c>
       <c r="B74" t="n">
-        <v>146802</v>
+        <v>178151</v>
       </c>
       <c r="C74" t="s">
         <v>698</v>
@@ -7765,7 +7765,7 @@
         <v>35421</v>
       </c>
       <c r="B75" t="n">
-        <v>146803</v>
+        <v>178152</v>
       </c>
       <c r="C75" t="s">
         <v>708</v>
@@ -7840,7 +7840,7 @@
         <v>35421</v>
       </c>
       <c r="B76" t="n">
-        <v>146804</v>
+        <v>178153</v>
       </c>
       <c r="C76" t="s">
         <v>716</v>
